--- a/BackTest/2019-11-15 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-15 BackTest CTXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>25</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L12" t="n">
         <v>130.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
       <c r="L13" t="n">
         <v>130.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>26</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>130.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-38.46153846153847</v>
+      </c>
       <c r="L15" t="n">
         <v>130.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>30</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>129.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>31</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>129.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>32</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L18" t="n">
         <v>129</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>33</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L19" t="n">
         <v>128.8</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L20" t="n">
         <v>128.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>36</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L21" t="n">
         <v>128.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>36</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L22" t="n">
         <v>128.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.666666666666667</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L23" t="n">
         <v>128.1</v>
@@ -1466,7 +1488,7 @@
         <v>39</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.666666666666667</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L24" t="n">
         <v>127.6</v>
@@ -1515,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>-21.42857142857143</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>127.2</v>
@@ -1570,7 +1592,7 @@
         <v>40</v>
       </c>
       <c r="K26" t="n">
-        <v>-36</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L26" t="n">
         <v>127</v>
@@ -1629,7 +1651,7 @@
         <v>46</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>127.5</v>
@@ -1686,7 +1708,7 @@
         <v>48</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>127.7</v>
@@ -1743,7 +1765,7 @@
         <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>127.8</v>
@@ -1800,7 +1822,7 @@
         <v>51</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L30" t="n">
         <v>127.7</v>
@@ -1857,7 +1879,7 @@
         <v>53</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L31" t="n">
         <v>127.4</v>
@@ -1916,7 +1938,7 @@
         <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>-29.03225806451613</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L32" t="n">
         <v>126.8</v>
@@ -1973,7 +1995,7 @@
         <v>57</v>
       </c>
       <c r="K33" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>126.4</v>
@@ -2032,7 +2054,7 @@
         <v>57</v>
       </c>
       <c r="K34" t="n">
-        <v>-22.58064516129032</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L34" t="n">
         <v>126.2</v>
@@ -2095,7 +2117,7 @@
         <v>57</v>
       </c>
       <c r="K35" t="n">
-        <v>-17.24137931034483</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L35" t="n">
         <v>126.1</v>
@@ -2158,7 +2180,7 @@
         <v>59</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.24137931034483</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L36" t="n">
         <v>125.8</v>
@@ -2219,7 +2241,7 @@
         <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.3448275862069</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>125</v>
@@ -2278,7 +2300,7 @@
         <v>62</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L38" t="n">
         <v>124.2</v>
@@ -2339,7 +2361,7 @@
         <v>63</v>
       </c>
       <c r="K39" t="n">
-        <v>-13.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>123.7</v>
@@ -2398,7 +2420,7 @@
         <v>63</v>
       </c>
       <c r="K40" t="n">
-        <v>-25.92592592592592</v>
+        <v>-40</v>
       </c>
       <c r="L40" t="n">
         <v>123.1</v>
@@ -2459,7 +2481,7 @@
         <v>64</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>122.8</v>
@@ -2522,7 +2544,7 @@
         <v>65</v>
       </c>
       <c r="K42" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>122.9</v>
@@ -2583,7 +2605,7 @@
         <v>66</v>
       </c>
       <c r="K43" t="n">
-        <v>-17.24137931034483</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>122.8</v>
@@ -2646,7 +2668,7 @@
         <v>68</v>
       </c>
       <c r="K44" t="n">
-        <v>-17.24137931034483</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L44" t="n">
         <v>122.5</v>
@@ -2707,7 +2729,7 @@
         <v>68</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L45" t="n">
         <v>122.2</v>
@@ -2766,7 +2788,7 @@
         <v>69</v>
       </c>
       <c r="K46" t="n">
-        <v>-17.24137931034483</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>122</v>
@@ -2823,7 +2845,7 @@
         <v>70</v>
       </c>
       <c r="K47" t="n">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="L47" t="n">
         <v>121.6</v>
@@ -2880,7 +2902,7 @@
         <v>71</v>
       </c>
       <c r="K48" t="n">
-        <v>-39.1304347826087</v>
+        <v>-25</v>
       </c>
       <c r="L48" t="n">
         <v>121.5</v>
@@ -2937,7 +2959,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>121.4</v>
@@ -2994,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="K50" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L50" t="n">
         <v>121.6</v>
@@ -3051,7 +3073,7 @@
         <v>75</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>121.7</v>
@@ -3106,7 +3128,7 @@
         <v>76</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>121.8</v>
@@ -3163,7 +3185,7 @@
         <v>80</v>
       </c>
       <c r="K53" t="n">
-        <v>21.73913043478261</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>122.4</v>
@@ -3222,7 +3244,7 @@
         <v>83</v>
       </c>
       <c r="K54" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>122.9</v>
@@ -3279,7 +3301,7 @@
         <v>84</v>
       </c>
       <c r="K55" t="n">
-        <v>3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>123.3</v>
@@ -3336,7 +3358,7 @@
         <v>85</v>
       </c>
       <c r="K56" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>123.7</v>
@@ -3397,7 +3419,7 @@
         <v>87</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.703703703703703</v>
+        <v>12.5</v>
       </c>
       <c r="L57" t="n">
         <v>124</v>
@@ -3458,7 +3480,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L58" t="n">
         <v>124.2</v>
@@ -3515,7 +3537,7 @@
         <v>87</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L59" t="n">
         <v>124.3</v>
@@ -3574,7 +3596,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L60" t="n">
         <v>124.2</v>
@@ -3635,7 +3657,7 @@
         <v>89</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L61" t="n">
         <v>124.2</v>
@@ -3696,7 +3718,7 @@
         <v>91</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.692307692307693</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L62" t="n">
         <v>123.9</v>
@@ -3755,7 +3777,7 @@
         <v>91</v>
       </c>
       <c r="K63" t="n">
-        <v>-4</v>
+        <v>-50</v>
       </c>
       <c r="L63" t="n">
         <v>123.2</v>
@@ -3812,7 +3834,7 @@
         <v>91</v>
       </c>
       <c r="K64" t="n">
-        <v>4.347826086956522</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L64" t="n">
         <v>122.8</v>
@@ -3869,7 +3891,7 @@
         <v>92</v>
       </c>
       <c r="K65" t="n">
-        <v>8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>122.6</v>
@@ -3926,7 +3948,7 @@
         <v>94</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>122.3</v>
@@ -3983,7 +4005,7 @@
         <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>122.3</v>
@@ -4040,7 +4062,7 @@
         <v>95</v>
       </c>
       <c r="K68" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>122.3</v>
@@ -4097,7 +4119,7 @@
         <v>95</v>
       </c>
       <c r="K69" t="n">
-        <v>4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>122.3</v>
@@ -4154,7 +4176,7 @@
         <v>95</v>
       </c>
       <c r="K70" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>122.2</v>
@@ -4211,7 +4233,7 @@
         <v>96</v>
       </c>
       <c r="K71" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>121.9</v>
@@ -4268,7 +4290,7 @@
         <v>97</v>
       </c>
       <c r="K72" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>121.9</v>
@@ -4325,7 +4347,7 @@
         <v>99</v>
       </c>
       <c r="K73" t="n">
-        <v>-47.36842105263158</v>
+        <v>-25</v>
       </c>
       <c r="L73" t="n">
         <v>121.7</v>
@@ -4382,7 +4404,7 @@
         <v>101</v>
       </c>
       <c r="K74" t="n">
-        <v>-22.22222222222222</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L74" t="n">
         <v>121.7</v>
@@ -4433,7 +4455,7 @@
         <v>102</v>
       </c>
       <c r="K75" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>121.5</v>
@@ -4484,7 +4506,7 @@
         <v>102</v>
       </c>
       <c r="K76" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>121.5</v>
@@ -4535,7 +4557,7 @@
         <v>102</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>121.4</v>
@@ -4586,7 +4608,7 @@
         <v>104</v>
       </c>
       <c r="K78" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L78" t="n">
         <v>121.5</v>
@@ -4637,7 +4659,7 @@
         <v>104</v>
       </c>
       <c r="K79" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L79" t="n">
         <v>121.6</v>
@@ -4688,7 +4710,7 @@
         <v>106</v>
       </c>
       <c r="K80" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L80" t="n">
         <v>121.9</v>
@@ -4739,7 +4761,7 @@
         <v>106</v>
       </c>
       <c r="K81" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>122.3</v>
@@ -4790,7 +4812,7 @@
         <v>107</v>
       </c>
       <c r="K82" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L82" t="n">
         <v>122.5</v>
@@ -4841,7 +4863,7 @@
         <v>108</v>
       </c>
       <c r="K83" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>122.8</v>
@@ -4892,7 +4914,7 @@
         <v>109</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>122.8</v>
@@ -4943,7 +4965,7 @@
         <v>110</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L85" t="n">
         <v>123</v>
@@ -4994,7 +5016,7 @@
         <v>110</v>
       </c>
       <c r="K86" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L86" t="n">
         <v>123.2</v>
@@ -5045,7 +5067,7 @@
         <v>112</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L87" t="n">
         <v>123.2</v>
@@ -5096,7 +5118,7 @@
         <v>113</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L88" t="n">
         <v>123.1</v>
@@ -5147,7 +5169,7 @@
         <v>113</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L89" t="n">
         <v>123</v>
@@ -5198,7 +5220,7 @@
         <v>113</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L90" t="n">
         <v>122.7</v>
@@ -5249,7 +5271,7 @@
         <v>114</v>
       </c>
       <c r="K91" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>122.5</v>
@@ -5300,7 +5322,7 @@
         <v>116</v>
       </c>
       <c r="K92" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L92" t="n">
         <v>122.6</v>
@@ -5351,7 +5373,7 @@
         <v>117</v>
       </c>
       <c r="K93" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
         <v>122.7</v>
@@ -5402,7 +5424,7 @@
         <v>117</v>
       </c>
       <c r="K94" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>122.9</v>
@@ -5453,7 +5475,7 @@
         <v>117</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>123</v>
@@ -5504,7 +5526,7 @@
         <v>119</v>
       </c>
       <c r="K96" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L96" t="n">
         <v>122.9</v>
@@ -5555,7 +5577,7 @@
         <v>120</v>
       </c>
       <c r="K97" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>123.1</v>
@@ -5606,7 +5628,7 @@
         <v>120</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L98" t="n">
         <v>123.2</v>
@@ -5657,7 +5679,7 @@
         <v>120</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>123.3</v>
@@ -5708,7 +5730,7 @@
         <v>121</v>
       </c>
       <c r="K100" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>123.5</v>
@@ -5759,7 +5781,7 @@
         <v>121</v>
       </c>
       <c r="K101" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>123.6</v>
@@ -5861,7 +5883,7 @@
         <v>121</v>
       </c>
       <c r="K103" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>123.5</v>
@@ -5912,7 +5934,7 @@
         <v>121</v>
       </c>
       <c r="K104" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>123.5</v>
@@ -5963,7 +5985,7 @@
         <v>121</v>
       </c>
       <c r="K105" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>123.5</v>
@@ -6065,7 +6087,7 @@
         <v>123</v>
       </c>
       <c r="K107" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>123.7</v>
@@ -6116,7 +6138,7 @@
         <v>123</v>
       </c>
       <c r="K108" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>123.8</v>
@@ -6167,7 +6189,7 @@
         <v>123</v>
       </c>
       <c r="K109" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>123.9</v>
@@ -6218,7 +6240,7 @@
         <v>123</v>
       </c>
       <c r="K110" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>123.9</v>
@@ -6269,7 +6291,7 @@
         <v>124</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>123.8</v>
@@ -6320,7 +6342,7 @@
         <v>125</v>
       </c>
       <c r="K112" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L112" t="n">
         <v>123.6</v>
@@ -6422,7 +6444,7 @@
         <v>128</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>123.5</v>
@@ -6473,7 +6495,7 @@
         <v>130</v>
       </c>
       <c r="K115" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L115" t="n">
         <v>123.6</v>
@@ -6524,7 +6546,7 @@
         <v>130</v>
       </c>
       <c r="K116" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>123.8</v>
@@ -6575,7 +6597,7 @@
         <v>131</v>
       </c>
       <c r="K117" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>123.8</v>
@@ -6626,7 +6648,7 @@
         <v>131</v>
       </c>
       <c r="K118" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>123.8</v>
@@ -6677,7 +6699,7 @@
         <v>131</v>
       </c>
       <c r="K119" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>123.8</v>
@@ -6728,7 +6750,7 @@
         <v>133</v>
       </c>
       <c r="K120" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>124</v>
@@ -6779,7 +6801,7 @@
         <v>133</v>
       </c>
       <c r="K121" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L121" t="n">
         <v>124.3</v>
@@ -6830,7 +6852,7 @@
         <v>133</v>
       </c>
       <c r="K122" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>124.7</v>
@@ -6881,7 +6903,7 @@
         <v>134</v>
       </c>
       <c r="K123" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>124.8</v>
@@ -6932,7 +6954,7 @@
         <v>134</v>
       </c>
       <c r="K124" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>125</v>
@@ -6983,7 +7005,7 @@
         <v>134</v>
       </c>
       <c r="K125" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>125</v>
@@ -7034,7 +7056,7 @@
         <v>135</v>
       </c>
       <c r="K126" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>124.9</v>
@@ -7136,7 +7158,7 @@
         <v>136</v>
       </c>
       <c r="K128" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>125</v>
@@ -7187,7 +7209,7 @@
         <v>137</v>
       </c>
       <c r="K129" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>125.2</v>
@@ -7289,7 +7311,7 @@
         <v>141</v>
       </c>
       <c r="K131" t="n">
-        <v>41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L131" t="n">
         <v>125.7</v>
@@ -7340,7 +7362,7 @@
         <v>141</v>
       </c>
       <c r="K132" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L132" t="n">
         <v>126.1</v>
@@ -7391,7 +7413,7 @@
         <v>141</v>
       </c>
       <c r="K133" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L133" t="n">
         <v>126.6</v>
@@ -7448,7 +7470,7 @@
         <v>141</v>
       </c>
       <c r="K134" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L134" t="n">
         <v>127.1</v>
@@ -7505,7 +7527,7 @@
         <v>141</v>
       </c>
       <c r="K135" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>127.6</v>
@@ -7562,7 +7584,7 @@
         <v>149</v>
       </c>
       <c r="K136" t="n">
-        <v>68.42105263157895</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>129</v>
@@ -7619,7 +7641,7 @@
         <v>151</v>
       </c>
       <c r="K137" t="n">
-        <v>60</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>130.2</v>
@@ -7676,7 +7698,7 @@
         <v>152</v>
       </c>
       <c r="K138" t="n">
-        <v>52.38095238095239</v>
+        <v>60</v>
       </c>
       <c r="L138" t="n">
         <v>131.2</v>
@@ -7737,7 +7759,7 @@
         <v>157</v>
       </c>
       <c r="K139" t="n">
-        <v>61.53846153846154</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L139" t="n">
         <v>132.6</v>
@@ -7794,7 +7816,7 @@
         <v>157</v>
       </c>
       <c r="K140" t="n">
-        <v>58.33333333333334</v>
+        <v>62.5</v>
       </c>
       <c r="L140" t="n">
         <v>133.9</v>
@@ -7853,7 +7875,7 @@
         <v>159</v>
       </c>
       <c r="K141" t="n">
-        <v>46.15384615384615</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L141" t="n">
         <v>134.7</v>
@@ -7914,7 +7936,7 @@
         <v>161</v>
       </c>
       <c r="K142" t="n">
-        <v>35.71428571428572</v>
+        <v>30</v>
       </c>
       <c r="L142" t="n">
         <v>135.3</v>
@@ -7975,7 +7997,7 @@
         <v>162</v>
       </c>
       <c r="K143" t="n">
-        <v>35.71428571428572</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L143" t="n">
         <v>135.8</v>
@@ -8032,7 +8054,7 @@
         <v>164</v>
       </c>
       <c r="K144" t="n">
-        <v>26.66666666666667</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L144" t="n">
         <v>136.1</v>
@@ -8089,7 +8111,7 @@
         <v>165</v>
       </c>
       <c r="K145" t="n">
-        <v>29.03225806451613</v>
+        <v>-25</v>
       </c>
       <c r="L145" t="n">
         <v>136.5</v>
@@ -8148,7 +8170,7 @@
         <v>166</v>
       </c>
       <c r="K146" t="n">
-        <v>29.03225806451613</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>136</v>
@@ -8209,7 +8231,7 @@
         <v>167</v>
       </c>
       <c r="K147" t="n">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="L147" t="n">
         <v>135.6</v>
@@ -8268,7 +8290,7 @@
         <v>168</v>
       </c>
       <c r="K148" t="n">
-        <v>25</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L148" t="n">
         <v>135.4</v>
@@ -8325,7 +8347,7 @@
         <v>169</v>
       </c>
       <c r="K149" t="n">
-        <v>25</v>
+        <v>-50</v>
       </c>
       <c r="L149" t="n">
         <v>134.8</v>
@@ -8382,7 +8404,7 @@
         <v>169</v>
       </c>
       <c r="K150" t="n">
-        <v>22.58064516129032</v>
+        <v>-40</v>
       </c>
       <c r="L150" t="n">
         <v>134.2</v>
@@ -8439,7 +8461,7 @@
         <v>169</v>
       </c>
       <c r="K151" t="n">
-        <v>14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L151" t="n">
         <v>133.8</v>
@@ -8496,7 +8518,7 @@
         <v>169</v>
       </c>
       <c r="K152" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L152" t="n">
         <v>133.6</v>
@@ -8555,7 +8577,7 @@
         <v>169</v>
       </c>
       <c r="K153" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
         <v>133.5</v>
@@ -8618,7 +8640,7 @@
         <v>169</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>133.6</v>
@@ -8681,7 +8703,7 @@
         <v>170</v>
       </c>
       <c r="K155" t="n">
-        <v>17.24137931034483</v>
+        <v>50</v>
       </c>
       <c r="L155" t="n">
         <v>133.7</v>
@@ -8744,7 +8766,7 @@
         <v>171</v>
       </c>
       <c r="K156" t="n">
-        <v>-18.18181818181818</v>
+        <v>50</v>
       </c>
       <c r="L156" t="n">
         <v>133.8</v>
@@ -8803,7 +8825,7 @@
         <v>171</v>
       </c>
       <c r="K157" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>134</v>
@@ -8862,7 +8884,7 @@
         <v>172</v>
       </c>
       <c r="K158" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>134</v>
@@ -9039,7 +9061,7 @@
         <v>174</v>
       </c>
       <c r="K161" t="n">
-        <v>-46.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L161" t="n">
         <v>133.3</v>
@@ -9100,7 +9122,7 @@
         <v>176</v>
       </c>
       <c r="K162" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L162" t="n">
         <v>133.2</v>
@@ -9159,7 +9181,7 @@
         <v>177</v>
       </c>
       <c r="K163" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L163" t="n">
         <v>133</v>
@@ -9222,7 +9244,7 @@
         <v>177</v>
       </c>
       <c r="K164" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L164" t="n">
         <v>132.8</v>
@@ -9285,7 +9307,7 @@
         <v>178</v>
       </c>
       <c r="K165" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>132.4</v>
@@ -9344,7 +9366,7 @@
         <v>178</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L166" t="n">
         <v>132.1</v>
@@ -9401,7 +9423,7 @@
         <v>179</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L167" t="n">
         <v>131.9</v>
@@ -9458,7 +9480,7 @@
         <v>180</v>
       </c>
       <c r="K168" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L168" t="n">
         <v>131.7</v>
@@ -9515,7 +9537,7 @@
         <v>181</v>
       </c>
       <c r="K169" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L169" t="n">
         <v>131.5</v>
@@ -9572,7 +9594,7 @@
         <v>183</v>
       </c>
       <c r="K170" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>131.1</v>
@@ -9629,7 +9651,7 @@
         <v>183</v>
       </c>
       <c r="K171" t="n">
-        <v>-42.85714285714285</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L171" t="n">
         <v>130.8</v>
@@ -9686,7 +9708,7 @@
         <v>184</v>
       </c>
       <c r="K172" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L172" t="n">
         <v>130.4</v>
@@ -9743,7 +9765,7 @@
         <v>184</v>
       </c>
       <c r="K173" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L173" t="n">
         <v>130.1</v>
@@ -9800,7 +9822,7 @@
         <v>185</v>
       </c>
       <c r="K174" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>129.9</v>
@@ -9857,7 +9879,7 @@
         <v>187</v>
       </c>
       <c r="K175" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L175" t="n">
         <v>130</v>
@@ -9914,7 +9936,7 @@
         <v>188</v>
       </c>
       <c r="K176" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L176" t="n">
         <v>130.2</v>
@@ -9971,7 +9993,7 @@
         <v>188</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L177" t="n">
         <v>130.3</v>
@@ -10022,7 +10044,7 @@
         <v>189</v>
       </c>
       <c r="K178" t="n">
-        <v>-5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L178" t="n">
         <v>130.4</v>
@@ -10073,7 +10095,7 @@
         <v>189</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L179" t="n">
         <v>130.6</v>
@@ -10124,7 +10146,7 @@
         <v>190</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L180" t="n">
         <v>130.9</v>
@@ -10175,7 +10197,7 @@
         <v>190</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>131.2</v>
@@ -10226,7 +10248,7 @@
         <v>191</v>
       </c>
       <c r="K182" t="n">
-        <v>-6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L182" t="n">
         <v>131.5</v>
@@ -10277,7 +10299,7 @@
         <v>192</v>
       </c>
       <c r="K183" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L183" t="n">
         <v>131.9</v>
@@ -10379,7 +10401,7 @@
         <v>194</v>
       </c>
       <c r="K185" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>132.2</v>
@@ -10430,7 +10452,7 @@
         <v>197</v>
       </c>
       <c r="K186" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>131.9</v>
@@ -10481,7 +10503,7 @@
         <v>197</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L187" t="n">
         <v>131.6</v>
@@ -10532,7 +10554,7 @@
         <v>198</v>
       </c>
       <c r="K188" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>131.3</v>
@@ -10583,7 +10605,7 @@
         <v>200</v>
       </c>
       <c r="K189" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>131.2</v>
@@ -10634,7 +10656,7 @@
         <v>201</v>
       </c>
       <c r="K190" t="n">
-        <v>11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L190" t="n">
         <v>131.1</v>
@@ -10685,7 +10707,7 @@
         <v>201</v>
       </c>
       <c r="K191" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>131</v>
@@ -10736,7 +10758,7 @@
         <v>201</v>
       </c>
       <c r="K192" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>130.8</v>
@@ -10787,7 +10809,7 @@
         <v>201</v>
       </c>
       <c r="K193" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L193" t="n">
         <v>130.5</v>
@@ -10838,7 +10860,7 @@
         <v>202</v>
       </c>
       <c r="K194" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L194" t="n">
         <v>130.4</v>
@@ -10889,7 +10911,7 @@
         <v>202</v>
       </c>
       <c r="K195" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
         <v>130.2</v>
@@ -10940,7 +10962,7 @@
         <v>202</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>130.3</v>
@@ -10991,7 +11013,7 @@
         <v>202</v>
       </c>
       <c r="K197" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L197" t="n">
         <v>130.4</v>
@@ -11042,7 +11064,7 @@
         <v>202</v>
       </c>
       <c r="K198" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>130.6</v>
@@ -11093,7 +11115,7 @@
         <v>203</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>130.5</v>
@@ -11144,7 +11166,7 @@
         <v>203</v>
       </c>
       <c r="K200" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>130.5</v>
@@ -11195,7 +11217,7 @@
         <v>204</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>130.6</v>
@@ -11246,7 +11268,7 @@
         <v>206</v>
       </c>
       <c r="K202" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L202" t="n">
         <v>130.9</v>
@@ -11297,7 +11319,7 @@
         <v>206</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L203" t="n">
         <v>131.2</v>
@@ -11348,7 +11370,7 @@
         <v>207</v>
       </c>
       <c r="K204" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L204" t="n">
         <v>131.5</v>
@@ -11399,7 +11421,7 @@
         <v>208</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>131.7</v>
@@ -11450,7 +11472,7 @@
         <v>209</v>
       </c>
       <c r="K206" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L206" t="n">
         <v>132</v>
@@ -11501,7 +11523,7 @@
         <v>209</v>
       </c>
       <c r="K207" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L207" t="n">
         <v>132.3</v>
@@ -11552,7 +11574,7 @@
         <v>209</v>
       </c>
       <c r="K208" t="n">
-        <v>45.45454545454545</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L208" t="n">
         <v>132.6</v>
@@ -11603,7 +11625,7 @@
         <v>209</v>
       </c>
       <c r="K209" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L209" t="n">
         <v>133</v>
@@ -11654,7 +11676,7 @@
         <v>211</v>
       </c>
       <c r="K210" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L210" t="n">
         <v>133.6</v>
@@ -11807,7 +11829,7 @@
         <v>212</v>
       </c>
       <c r="K213" t="n">
-        <v>63.63636363636363</v>
+        <v>60</v>
       </c>
       <c r="L213" t="n">
         <v>134.8</v>
@@ -11858,7 +11880,7 @@
         <v>212</v>
       </c>
       <c r="K214" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>135.1</v>
@@ -11909,7 +11931,7 @@
         <v>213</v>
       </c>
       <c r="K215" t="n">
-        <v>63.63636363636363</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>135.6</v>
@@ -11960,7 +11982,7 @@
         <v>217</v>
       </c>
       <c r="K216" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>136.4</v>
@@ -12011,7 +12033,7 @@
         <v>218</v>
       </c>
       <c r="K217" t="n">
-        <v>62.5</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L217" t="n">
         <v>137.1</v>
@@ -12062,7 +12084,7 @@
         <v>218</v>
       </c>
       <c r="K218" t="n">
-        <v>62.5</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L218" t="n">
         <v>137.8</v>
@@ -12113,7 +12135,7 @@
         <v>221</v>
       </c>
       <c r="K219" t="n">
-        <v>77.77777777777779</v>
+        <v>80</v>
       </c>
       <c r="L219" t="n">
         <v>138.8</v>
@@ -12164,7 +12186,7 @@
         <v>222</v>
       </c>
       <c r="K220" t="n">
-        <v>68.42105263157895</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L220" t="n">
         <v>139.5</v>
@@ -12215,7 +12237,7 @@
         <v>222</v>
       </c>
       <c r="K221" t="n">
-        <v>66.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L221" t="n">
         <v>140.2</v>
@@ -12266,7 +12288,7 @@
         <v>226</v>
       </c>
       <c r="K222" t="n">
-        <v>30</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>140.5</v>
@@ -12317,7 +12339,7 @@
         <v>229</v>
       </c>
       <c r="K223" t="n">
-        <v>39.1304347826087</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L223" t="n">
         <v>141</v>
@@ -12368,7 +12390,7 @@
         <v>231</v>
       </c>
       <c r="K224" t="n">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>141.7</v>
@@ -12419,7 +12441,7 @@
         <v>245</v>
       </c>
       <c r="K225" t="n">
-        <v>67.56756756756756</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L225" t="n">
         <v>143.7</v>
@@ -12470,7 +12492,7 @@
         <v>251</v>
       </c>
       <c r="K226" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>144.7</v>
@@ -12521,7 +12543,7 @@
         <v>253</v>
       </c>
       <c r="K227" t="n">
-        <v>36.36363636363637</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L227" t="n">
         <v>145.6</v>
@@ -12572,7 +12594,7 @@
         <v>259</v>
       </c>
       <c r="K228" t="n">
-        <v>44</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L228" t="n">
         <v>147.1</v>
@@ -12623,7 +12645,7 @@
         <v>261</v>
       </c>
       <c r="K229" t="n">
-        <v>38.46153846153847</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L229" t="n">
         <v>148.1</v>
@@ -12674,7 +12696,7 @@
         <v>262</v>
       </c>
       <c r="K230" t="n">
-        <v>37.25490196078432</v>
+        <v>30</v>
       </c>
       <c r="L230" t="n">
         <v>149.3</v>
@@ -12725,7 +12747,7 @@
         <v>263</v>
       </c>
       <c r="K231" t="n">
-        <v>34.61538461538461</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L231" t="n">
         <v>150.4</v>
@@ -12776,7 +12798,7 @@
         <v>266</v>
       </c>
       <c r="K232" t="n">
-        <v>38.18181818181819</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L232" t="n">
         <v>152.2</v>
@@ -12827,7 +12849,7 @@
         <v>267</v>
       </c>
       <c r="K233" t="n">
-        <v>34.54545454545455</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>153.6</v>
@@ -12878,7 +12900,7 @@
         <v>269</v>
       </c>
       <c r="K234" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>155</v>
@@ -12929,7 +12951,7 @@
         <v>272</v>
       </c>
       <c r="K235" t="n">
-        <v>28.8135593220339</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>154.7</v>
@@ -12980,7 +13002,7 @@
         <v>276</v>
       </c>
       <c r="K236" t="n">
-        <v>28.8135593220339</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L236" t="n">
         <v>155.4</v>
@@ -13031,7 +13053,7 @@
         <v>279</v>
       </c>
       <c r="K237" t="n">
-        <v>34.42622950819672</v>
+        <v>30</v>
       </c>
       <c r="L237" t="n">
         <v>156.6</v>
@@ -13082,7 +13104,7 @@
         <v>281</v>
       </c>
       <c r="K238" t="n">
-        <v>30.15873015873016</v>
+        <v>30</v>
       </c>
       <c r="L238" t="n">
         <v>157</v>
@@ -13133,7 +13155,7 @@
         <v>281</v>
       </c>
       <c r="K239" t="n">
-        <v>26.66666666666667</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L239" t="n">
         <v>157.6</v>
@@ -13184,7 +13206,7 @@
         <v>285</v>
       </c>
       <c r="K240" t="n">
-        <v>20.63492063492063</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>157.7</v>
@@ -13235,7 +13257,7 @@
         <v>289</v>
       </c>
       <c r="K241" t="n">
-        <v>25.37313432835821</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L241" t="n">
         <v>158.3</v>
@@ -13286,7 +13308,7 @@
         <v>291</v>
       </c>
       <c r="K242" t="n">
-        <v>29.23076923076923</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L242" t="n">
         <v>158.4</v>
@@ -13337,7 +13359,7 @@
         <v>293</v>
       </c>
       <c r="K243" t="n">
-        <v>28.125</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L243" t="n">
         <v>158.8</v>
@@ -13388,7 +13410,7 @@
         <v>295</v>
       </c>
       <c r="K244" t="n">
-        <v>21.875</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L244" t="n">
         <v>158.8</v>
@@ -13439,7 +13461,7 @@
         <v>297</v>
       </c>
       <c r="K245" t="n">
-        <v>-3.846153846153846</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L245" t="n">
         <v>158.9</v>
@@ -13490,7 +13512,7 @@
         <v>297</v>
       </c>
       <c r="K246" t="n">
-        <v>8.695652173913043</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>158.6</v>
@@ -13541,7 +13563,7 @@
         <v>298</v>
       </c>
       <c r="K247" t="n">
-        <v>11.11111111111111</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L247" t="n">
         <v>157.9</v>
@@ -13592,7 +13614,7 @@
         <v>299</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L248" t="n">
         <v>157.5</v>
@@ -13643,7 +13665,7 @@
         <v>300</v>
       </c>
       <c r="K249" t="n">
-        <v>2.564102564102564</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L249" t="n">
         <v>157</v>
@@ -13694,7 +13716,7 @@
         <v>300</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L250" t="n">
         <v>156.9</v>
@@ -13745,7 +13767,7 @@
         <v>302</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.564102564102564</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L251" t="n">
         <v>156.2</v>
@@ -13796,7 +13818,7 @@
         <v>304</v>
       </c>
       <c r="K252" t="n">
-        <v>-15.78947368421053</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L252" t="n">
         <v>155.5</v>
@@ -13847,7 +13869,7 @@
         <v>304</v>
       </c>
       <c r="K253" t="n">
-        <v>-13.51351351351351</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L253" t="n">
         <v>154.6</v>
@@ -13898,7 +13920,7 @@
         <v>305</v>
       </c>
       <c r="K254" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L254" t="n">
         <v>154</v>
@@ -13949,7 +13971,7 @@
         <v>306</v>
       </c>
       <c r="K255" t="n">
-        <v>-11.76470588235294</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L255" t="n">
         <v>153.5</v>
@@ -14000,7 +14022,7 @@
         <v>310</v>
       </c>
       <c r="K256" t="n">
-        <v>-11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>153.4</v>
@@ -14051,7 +14073,7 @@
         <v>311</v>
       </c>
       <c r="K257" t="n">
-        <v>-18.75</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>153.5</v>
@@ -14102,7 +14124,7 @@
         <v>315</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>153.9</v>
@@ -14153,7 +14175,7 @@
         <v>315</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>154.4</v>
@@ -14204,7 +14226,7 @@
         <v>315</v>
       </c>
       <c r="K260" t="n">
-        <v>13.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L260" t="n">
         <v>154.9</v>
@@ -14255,7 +14277,7 @@
         <v>321</v>
       </c>
       <c r="K261" t="n">
-        <v>18.75</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L261" t="n">
         <v>156.2</v>
@@ -14306,7 +14328,7 @@
         <v>324</v>
       </c>
       <c r="K262" t="n">
-        <v>15.15151515151515</v>
+        <v>60</v>
       </c>
       <c r="L262" t="n">
         <v>157.4</v>
@@ -14357,7 +14379,7 @@
         <v>328</v>
       </c>
       <c r="K263" t="n">
-        <v>-2.857142857142857</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L263" t="n">
         <v>158.2</v>
@@ -14408,7 +14430,7 @@
         <v>328</v>
       </c>
       <c r="K264" t="n">
-        <v>3.03030303030303</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L264" t="n">
         <v>158.9</v>
@@ -14459,7 +14481,7 @@
         <v>329</v>
       </c>
       <c r="K265" t="n">
-        <v>12.5</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L265" t="n">
         <v>159.8</v>
@@ -14510,7 +14532,7 @@
         <v>332</v>
       </c>
       <c r="K266" t="n">
-        <v>2.857142857142857</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L266" t="n">
         <v>160</v>
@@ -14561,7 +14583,7 @@
         <v>333</v>
       </c>
       <c r="K267" t="n">
-        <v>2.857142857142857</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L267" t="n">
         <v>160</v>
@@ -14612,7 +14634,7 @@
         <v>333</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L268" t="n">
         <v>159.6</v>
@@ -14663,7 +14685,7 @@
         <v>333</v>
       </c>
       <c r="K269" t="n">
-        <v>3.03030303030303</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L269" t="n">
         <v>159.2</v>
@@ -14714,7 +14736,7 @@
         <v>333</v>
       </c>
       <c r="K270" t="n">
-        <v>3.03030303030303</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L270" t="n">
         <v>158.8</v>
@@ -14765,7 +14787,7 @@
         <v>333</v>
       </c>
       <c r="K271" t="n">
-        <v>9.67741935483871</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L271" t="n">
         <v>157.8</v>
@@ -14816,7 +14838,7 @@
         <v>333</v>
       </c>
       <c r="K272" t="n">
-        <v>17.24137931034483</v>
+        <v>-60</v>
       </c>
       <c r="L272" t="n">
         <v>157.1</v>
@@ -14867,7 +14889,7 @@
         <v>333</v>
       </c>
       <c r="K273" t="n">
-        <v>17.24137931034483</v>
+        <v>-60</v>
       </c>
       <c r="L273" t="n">
         <v>156.8</v>
@@ -14918,7 +14940,7 @@
         <v>334</v>
       </c>
       <c r="K274" t="n">
-        <v>10.3448275862069</v>
+        <v>-100</v>
       </c>
       <c r="L274" t="n">
         <v>156.4</v>
@@ -14969,7 +14991,7 @@
         <v>337</v>
       </c>
       <c r="K275" t="n">
-        <v>3.225806451612903</v>
+        <v>-100</v>
       </c>
       <c r="L275" t="n">
         <v>155.6</v>
@@ -15020,7 +15042,7 @@
         <v>337</v>
       </c>
       <c r="K276" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L276" t="n">
         <v>155.1</v>
@@ -15071,7 +15093,7 @@
         <v>340</v>
       </c>
       <c r="K277" t="n">
-        <v>-3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L277" t="n">
         <v>155</v>
@@ -15122,7 +15144,7 @@
         <v>342</v>
       </c>
       <c r="K278" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>154.7</v>
@@ -15173,7 +15195,7 @@
         <v>344</v>
       </c>
       <c r="K279" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L279" t="n">
         <v>154.6</v>
@@ -15224,7 +15246,7 @@
         <v>345</v>
       </c>
       <c r="K280" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L280" t="n">
         <v>154.4</v>
@@ -15275,7 +15297,7 @@
         <v>345</v>
       </c>
       <c r="K281" t="n">
-        <v>-50</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L281" t="n">
         <v>154.2</v>
@@ -15326,7 +15348,7 @@
         <v>347</v>
       </c>
       <c r="K282" t="n">
-        <v>-30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>154.2</v>
@@ -15377,7 +15399,7 @@
         <v>349</v>
       </c>
       <c r="K283" t="n">
-        <v>-23.80952380952381</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L283" t="n">
         <v>154</v>
@@ -15428,7 +15450,7 @@
         <v>350</v>
       </c>
       <c r="K284" t="n">
-        <v>-18.18181818181818</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L284" t="n">
         <v>154</v>
@@ -15479,7 +15501,7 @@
         <v>351</v>
       </c>
       <c r="K285" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>154.2</v>
@@ -15530,7 +15552,7 @@
         <v>352</v>
       </c>
       <c r="K286" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L286" t="n">
         <v>154.3</v>
@@ -15581,7 +15603,7 @@
         <v>353</v>
       </c>
       <c r="K287" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L287" t="n">
         <v>154</v>
@@ -15632,7 +15654,7 @@
         <v>353</v>
       </c>
       <c r="K288" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>153.9</v>
@@ -15683,7 +15705,7 @@
         <v>354</v>
       </c>
       <c r="K289" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L289" t="n">
         <v>153.7</v>
@@ -15734,7 +15756,7 @@
         <v>355</v>
       </c>
       <c r="K290" t="n">
-        <v>-18.18181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L290" t="n">
         <v>153.5</v>
@@ -15785,7 +15807,7 @@
         <v>355</v>
       </c>
       <c r="K291" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L291" t="n">
         <v>153.3</v>
@@ -15836,7 +15858,7 @@
         <v>355</v>
       </c>
       <c r="K292" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>152.9</v>
@@ -15887,7 +15909,7 @@
         <v>355</v>
       </c>
       <c r="K293" t="n">
-        <v>-18.18181818181818</v>
+        <v>-60</v>
       </c>
       <c r="L293" t="n">
         <v>152.7</v>
@@ -15938,7 +15960,7 @@
         <v>356</v>
       </c>
       <c r="K294" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L294" t="n">
         <v>152.5</v>
@@ -15989,7 +16011,7 @@
         <v>358</v>
       </c>
       <c r="K295" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>152.6</v>
@@ -16040,7 +16062,7 @@
         <v>358</v>
       </c>
       <c r="K296" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L296" t="n">
         <v>152.8</v>
@@ -16091,7 +16113,7 @@
         <v>359</v>
       </c>
       <c r="K297" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>153</v>
@@ -16142,7 +16164,7 @@
         <v>359</v>
       </c>
       <c r="K298" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L298" t="n">
         <v>153.2</v>
@@ -16193,7 +16215,7 @@
         <v>360</v>
       </c>
       <c r="K299" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L299" t="n">
         <v>153.2</v>
@@ -16244,7 +16266,7 @@
         <v>360</v>
       </c>
       <c r="K300" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L300" t="n">
         <v>153.3</v>
@@ -16295,7 +16317,7 @@
         <v>362</v>
       </c>
       <c r="K301" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L301" t="n">
         <v>153.2</v>
@@ -16346,7 +16368,7 @@
         <v>363</v>
       </c>
       <c r="K302" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>153.2</v>
@@ -16448,7 +16470,7 @@
         <v>363</v>
       </c>
       <c r="K304" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L304" t="n">
         <v>153.1</v>
@@ -16499,7 +16521,7 @@
         <v>364</v>
       </c>
       <c r="K305" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L305" t="n">
         <v>152.9</v>
@@ -16550,7 +16572,7 @@
         <v>366</v>
       </c>
       <c r="K306" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L306" t="n">
         <v>152.5</v>
@@ -16601,7 +16623,7 @@
         <v>367</v>
       </c>
       <c r="K307" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L307" t="n">
         <v>152.1</v>
@@ -16652,7 +16674,7 @@
         <v>368</v>
       </c>
       <c r="K308" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L308" t="n">
         <v>151.8</v>
@@ -16703,7 +16725,7 @@
         <v>368</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L309" t="n">
         <v>151.6</v>
@@ -16754,7 +16776,7 @@
         <v>368</v>
       </c>
       <c r="K310" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>151.4</v>
@@ -16805,7 +16827,7 @@
         <v>368</v>
       </c>
       <c r="K311" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L311" t="n">
         <v>151.4</v>
@@ -16856,7 +16878,7 @@
         <v>368</v>
       </c>
       <c r="K312" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L312" t="n">
         <v>151.3</v>
@@ -16907,7 +16929,7 @@
         <v>368</v>
       </c>
       <c r="K313" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L313" t="n">
         <v>151.2</v>
@@ -16958,7 +16980,7 @@
         <v>368</v>
       </c>
       <c r="K314" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L314" t="n">
         <v>151.1</v>
@@ -17009,7 +17031,7 @@
         <v>369</v>
       </c>
       <c r="K315" t="n">
-        <v>-27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L315" t="n">
         <v>151</v>
@@ -17060,7 +17082,7 @@
         <v>369</v>
       </c>
       <c r="K316" t="n">
-        <v>-27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L316" t="n">
         <v>151.1</v>
@@ -17111,7 +17133,7 @@
         <v>369</v>
       </c>
       <c r="K317" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L317" t="n">
         <v>151.3</v>
@@ -17162,7 +17184,7 @@
         <v>369</v>
       </c>
       <c r="K318" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L318" t="n">
         <v>151.4</v>
@@ -17213,7 +17235,7 @@
         <v>370</v>
       </c>
       <c r="K319" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>151.4</v>
@@ -17264,7 +17286,7 @@
         <v>371</v>
       </c>
       <c r="K320" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>151.5</v>
@@ -17315,7 +17337,7 @@
         <v>372</v>
       </c>
       <c r="K321" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L321" t="n">
         <v>151.7</v>
@@ -17366,7 +17388,7 @@
         <v>373</v>
       </c>
       <c r="K322" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L322" t="n">
         <v>152</v>
@@ -17417,7 +17439,7 @@
         <v>374</v>
       </c>
       <c r="K323" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>152.2</v>
@@ -17519,7 +17541,7 @@
         <v>375</v>
       </c>
       <c r="K325" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>152.3</v>
@@ -17570,7 +17592,7 @@
         <v>376</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L326" t="n">
         <v>152.2</v>
@@ -17621,7 +17643,7 @@
         <v>376</v>
       </c>
       <c r="K327" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L327" t="n">
         <v>152.1</v>
@@ -17723,7 +17745,7 @@
         <v>376</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L329" t="n">
         <v>152</v>
@@ -17774,7 +17796,7 @@
         <v>379</v>
       </c>
       <c r="K330" t="n">
-        <v>-27.27272727272727</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L330" t="n">
         <v>151.6</v>
@@ -17825,7 +17847,7 @@
         <v>382</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>151.4</v>
@@ -17876,7 +17898,7 @@
         <v>383</v>
       </c>
       <c r="K332" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L332" t="n">
         <v>151</v>
@@ -17927,7 +17949,7 @@
         <v>384</v>
       </c>
       <c r="K333" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>150.6</v>
@@ -17978,7 +18000,7 @@
         <v>385</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L334" t="n">
         <v>150.4</v>
@@ -18029,7 +18051,7 @@
         <v>385</v>
       </c>
       <c r="K335" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L335" t="n">
         <v>150.2</v>
@@ -18080,7 +18102,7 @@
         <v>387</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L336" t="n">
         <v>150.3</v>
@@ -18131,7 +18153,7 @@
         <v>389</v>
       </c>
       <c r="K337" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L337" t="n">
         <v>150.2</v>
@@ -18182,7 +18204,7 @@
         <v>389</v>
       </c>
       <c r="K338" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L338" t="n">
         <v>150.1</v>
@@ -18233,7 +18255,7 @@
         <v>389</v>
       </c>
       <c r="K339" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L339" t="n">
         <v>150</v>
@@ -18284,7 +18306,7 @@
         <v>389</v>
       </c>
       <c r="K340" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L340" t="n">
         <v>150.2</v>
@@ -18335,7 +18357,7 @@
         <v>390</v>
       </c>
       <c r="K341" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L341" t="n">
         <v>150.2</v>
@@ -18386,7 +18408,7 @@
         <v>390</v>
       </c>
       <c r="K342" t="n">
-        <v>-17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>150.3</v>
@@ -18437,7 +18459,7 @@
         <v>390</v>
       </c>
       <c r="K343" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L343" t="n">
         <v>150.5</v>
@@ -18488,7 +18510,7 @@
         <v>390</v>
       </c>
       <c r="K344" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L344" t="n">
         <v>150.6</v>
@@ -18539,7 +18561,7 @@
         <v>390</v>
       </c>
       <c r="K345" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>150.7</v>
@@ -18590,7 +18612,7 @@
         <v>390</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L346" t="n">
         <v>150.6</v>
@@ -18641,7 +18663,7 @@
         <v>390</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L347" t="n">
         <v>150.7</v>
@@ -18692,7 +18714,7 @@
         <v>392</v>
       </c>
       <c r="K348" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="L348" t="n">
         <v>151</v>
@@ -18743,7 +18765,7 @@
         <v>392</v>
       </c>
       <c r="K349" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="L349" t="n">
         <v>151.3</v>
@@ -18794,7 +18816,7 @@
         <v>393</v>
       </c>
       <c r="K350" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L350" t="n">
         <v>151.7</v>
@@ -18845,7 +18867,7 @@
         <v>395</v>
       </c>
       <c r="K351" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L351" t="n">
         <v>152.2</v>
@@ -18896,7 +18918,7 @@
         <v>396</v>
       </c>
       <c r="K352" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L352" t="n">
         <v>152.8</v>
@@ -18947,7 +18969,7 @@
         <v>399</v>
       </c>
       <c r="K353" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L353" t="n">
         <v>153.7</v>
@@ -18998,7 +19020,7 @@
         <v>399</v>
       </c>
       <c r="K354" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L354" t="n">
         <v>154.6</v>
@@ -19049,7 +19071,7 @@
         <v>404</v>
       </c>
       <c r="K355" t="n">
-        <v>26.31578947368421</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L355" t="n">
         <v>155</v>
@@ -19100,7 +19122,7 @@
         <v>405</v>
       </c>
       <c r="K356" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>155.5</v>
@@ -19151,7 +19173,7 @@
         <v>408</v>
       </c>
       <c r="K357" t="n">
-        <v>47.36842105263158</v>
+        <v>37.5</v>
       </c>
       <c r="L357" t="n">
         <v>156.3</v>
@@ -19202,7 +19224,7 @@
         <v>411</v>
       </c>
       <c r="K358" t="n">
-        <v>27.27272727272727</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L358" t="n">
         <v>156.6</v>
@@ -19253,7 +19275,7 @@
         <v>411</v>
       </c>
       <c r="K359" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L359" t="n">
         <v>156.9</v>
@@ -19304,7 +19326,7 @@
         <v>412</v>
       </c>
       <c r="K360" t="n">
-        <v>30.43478260869566</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L360" t="n">
         <v>157.2</v>
@@ -19355,7 +19377,7 @@
         <v>414</v>
       </c>
       <c r="K361" t="n">
-        <v>16.66666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L361" t="n">
         <v>157.1</v>
@@ -19406,7 +19428,7 @@
         <v>414</v>
       </c>
       <c r="K362" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>156.9</v>
@@ -19457,7 +19479,7 @@
         <v>416</v>
       </c>
       <c r="K363" t="n">
-        <v>7.692307692307693</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L363" t="n">
         <v>156.2</v>
@@ -19508,7 +19530,7 @@
         <v>416</v>
       </c>
       <c r="K364" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L364" t="n">
         <v>155.5</v>
@@ -19559,7 +19581,7 @@
         <v>416</v>
       </c>
       <c r="K365" t="n">
-        <v>7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L365" t="n">
         <v>155.3</v>
@@ -19610,7 +19632,7 @@
         <v>417</v>
       </c>
       <c r="K366" t="n">
-        <v>3.703703703703703</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L366" t="n">
         <v>154.9</v>
@@ -19661,7 +19683,7 @@
         <v>418</v>
       </c>
       <c r="K367" t="n">
-        <v>7.142857142857142</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L367" t="n">
         <v>154.3</v>
@@ -19712,7 +19734,7 @@
         <v>418</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L368" t="n">
         <v>154</v>
@@ -19763,7 +19785,7 @@
         <v>419</v>
       </c>
       <c r="K369" t="n">
-        <v>3.703703703703703</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L369" t="n">
         <v>153.8</v>
@@ -19814,7 +19836,7 @@
         <v>421</v>
       </c>
       <c r="K370" t="n">
-        <v>-7.142857142857142</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L370" t="n">
         <v>153.3</v>
@@ -19865,7 +19887,7 @@
         <v>423</v>
       </c>
       <c r="K371" t="n">
-        <v>-7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L371" t="n">
         <v>153.2</v>
@@ -19916,7 +19938,7 @@
         <v>427</v>
       </c>
       <c r="K372" t="n">
-        <v>3.225806451612903</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L372" t="n">
         <v>153.5</v>
@@ -19967,7 +19989,7 @@
         <v>430</v>
       </c>
       <c r="K373" t="n">
-        <v>-16.12903225806452</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L373" t="n">
         <v>153.7</v>
@@ -20018,7 +20040,7 @@
         <v>432</v>
       </c>
       <c r="K374" t="n">
-        <v>-9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L374" t="n">
         <v>154.1</v>
@@ -20069,7 +20091,7 @@
         <v>433</v>
       </c>
       <c r="K375" t="n">
-        <v>3.448275862068965</v>
+        <v>25</v>
       </c>
       <c r="L375" t="n">
         <v>154.4</v>
@@ -20120,7 +20142,7 @@
         <v>433</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L376" t="n">
         <v>154.8</v>
@@ -20171,7 +20193,7 @@
         <v>433</v>
       </c>
       <c r="K377" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>155.1</v>
@@ -20222,7 +20244,7 @@
         <v>435</v>
       </c>
       <c r="K378" t="n">
-        <v>8.333333333333332</v>
+        <v>25</v>
       </c>
       <c r="L378" t="n">
         <v>155.6</v>
@@ -20273,7 +20295,7 @@
         <v>436</v>
       </c>
       <c r="K379" t="n">
-        <v>12</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L379" t="n">
         <v>156.1</v>
@@ -20324,7 +20346,7 @@
         <v>437</v>
       </c>
       <c r="K380" t="n">
-        <v>4</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L380" t="n">
         <v>156.7</v>
@@ -20375,7 +20397,7 @@
         <v>438</v>
       </c>
       <c r="K381" t="n">
-        <v>16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L381" t="n">
         <v>157.2</v>
@@ -20426,7 +20448,7 @@
         <v>439</v>
       </c>
       <c r="K382" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L382" t="n">
         <v>157.4</v>
@@ -20477,7 +20499,7 @@
         <v>440</v>
       </c>
       <c r="K383" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L383" t="n">
         <v>158</v>
@@ -20528,7 +20550,7 @@
         <v>442</v>
       </c>
       <c r="K384" t="n">
-        <v>38.46153846153847</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L384" t="n">
         <v>158.6</v>
@@ -20579,7 +20601,7 @@
         <v>442</v>
       </c>
       <c r="K385" t="n">
-        <v>38.46153846153847</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L385" t="n">
         <v>159.3</v>
@@ -20630,7 +20652,7 @@
         <v>442</v>
       </c>
       <c r="K386" t="n">
-        <v>44</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L386" t="n">
         <v>160</v>
@@ -20681,7 +20703,7 @@
         <v>442</v>
       </c>
       <c r="K387" t="n">
-        <v>41.66666666666667</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L387" t="n">
         <v>160.7</v>
@@ -20732,7 +20754,7 @@
         <v>442</v>
       </c>
       <c r="K388" t="n">
-        <v>41.66666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L388" t="n">
         <v>161.2</v>
@@ -20783,7 +20805,7 @@
         <v>444</v>
       </c>
       <c r="K389" t="n">
-        <v>28</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L389" t="n">
         <v>161.4</v>
@@ -20834,7 +20856,7 @@
         <v>445</v>
       </c>
       <c r="K390" t="n">
-        <v>41.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L390" t="n">
         <v>161.8</v>
@@ -20885,7 +20907,7 @@
         <v>447</v>
       </c>
       <c r="K391" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>161.9</v>
@@ -20936,7 +20958,7 @@
         <v>448</v>
       </c>
       <c r="K392" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>162</v>
@@ -20987,7 +21009,7 @@
         <v>449</v>
       </c>
       <c r="K393" t="n">
-        <v>26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L393" t="n">
         <v>161.9</v>
@@ -21038,7 +21060,7 @@
         <v>452</v>
       </c>
       <c r="K394" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>161.9</v>
@@ -21089,7 +21111,7 @@
         <v>459</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L395" t="n">
         <v>161.2</v>
@@ -21140,7 +21162,7 @@
         <v>460</v>
       </c>
       <c r="K396" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>160.6</v>
@@ -21191,7 +21213,7 @@
         <v>460</v>
       </c>
       <c r="K397" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>160</v>
@@ -21242,7 +21264,7 @@
         <v>460</v>
       </c>
       <c r="K398" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="L398" t="n">
         <v>159.4</v>
@@ -21293,7 +21315,7 @@
         <v>462</v>
       </c>
       <c r="K399" t="n">
-        <v>-15.38461538461539</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L399" t="n">
         <v>158.8</v>
@@ -21344,7 +21366,7 @@
         <v>462</v>
       </c>
       <c r="K400" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>158.1</v>
@@ -21395,7 +21417,7 @@
         <v>464</v>
       </c>
       <c r="K401" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L401" t="n">
         <v>157.8</v>
@@ -21446,7 +21468,7 @@
         <v>464</v>
       </c>
       <c r="K402" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L402" t="n">
         <v>157.4</v>
@@ -21497,7 +21519,7 @@
         <v>467</v>
       </c>
       <c r="K403" t="n">
-        <v>-25.92592592592592</v>
+        <v>-60</v>
       </c>
       <c r="L403" t="n">
         <v>156.8</v>
@@ -21548,7 +21570,7 @@
         <v>468</v>
       </c>
       <c r="K404" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L404" t="n">
         <v>155.8</v>
@@ -21599,7 +21621,7 @@
         <v>468</v>
       </c>
       <c r="K405" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L405" t="n">
         <v>155.5</v>
@@ -21650,7 +21672,7 @@
         <v>468</v>
       </c>
       <c r="K406" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L406" t="n">
         <v>155.1</v>
@@ -21701,7 +21723,7 @@
         <v>468</v>
       </c>
       <c r="K407" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L407" t="n">
         <v>154.7</v>
@@ -21752,7 +21774,7 @@
         <v>468</v>
       </c>
       <c r="K408" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>154.3</v>
@@ -21854,7 +21876,7 @@
         <v>469</v>
       </c>
       <c r="K410" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L410" t="n">
         <v>154</v>
@@ -21905,7 +21927,7 @@
         <v>470</v>
       </c>
       <c r="K411" t="n">
-        <v>-30.43478260869566</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L411" t="n">
         <v>153.6</v>
@@ -21956,7 +21978,7 @@
         <v>470</v>
       </c>
       <c r="K412" t="n">
-        <v>-36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>153.2</v>
@@ -22007,7 +22029,7 @@
         <v>472</v>
       </c>
       <c r="K413" t="n">
-        <v>-21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="L413" t="n">
         <v>153.3</v>
@@ -22058,7 +22080,7 @@
         <v>472</v>
       </c>
       <c r="K414" t="n">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="L414" t="n">
         <v>153.5</v>
@@ -22109,7 +22131,7 @@
         <v>473</v>
       </c>
       <c r="K415" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L415" t="n">
         <v>153.6</v>
@@ -22160,7 +22182,7 @@
         <v>474</v>
       </c>
       <c r="K416" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L416" t="n">
         <v>153.8</v>
@@ -22211,7 +22233,7 @@
         <v>474</v>
       </c>
       <c r="K417" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>154</v>
@@ -22262,7 +22284,7 @@
         <v>476</v>
       </c>
       <c r="K418" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>154</v>
@@ -22313,7 +22335,7 @@
         <v>479</v>
       </c>
       <c r="K419" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L419" t="n">
         <v>154.3</v>
@@ -22364,7 +22386,7 @@
         <v>479</v>
       </c>
       <c r="K420" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>154.5</v>
@@ -22415,7 +22437,7 @@
         <v>480</v>
       </c>
       <c r="K421" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L421" t="n">
         <v>154.7</v>
@@ -22466,7 +22488,7 @@
         <v>481</v>
       </c>
       <c r="K422" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L422" t="n">
         <v>154.8</v>
@@ -22517,7 +22539,7 @@
         <v>483</v>
       </c>
       <c r="K423" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L423" t="n">
         <v>154.9</v>
@@ -22568,7 +22590,7 @@
         <v>484</v>
       </c>
       <c r="K424" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L424" t="n">
         <v>154.9</v>
@@ -22619,7 +22641,7 @@
         <v>485</v>
       </c>
       <c r="K425" t="n">
-        <v>17.64705882352941</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L425" t="n">
         <v>155.1</v>
@@ -22670,7 +22692,7 @@
         <v>485</v>
       </c>
       <c r="K426" t="n">
-        <v>17.64705882352941</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L426" t="n">
         <v>155.2</v>
@@ -22721,7 +22743,7 @@
         <v>486</v>
       </c>
       <c r="K427" t="n">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="L427" t="n">
         <v>155.4</v>
@@ -22772,7 +22794,7 @@
         <v>486</v>
       </c>
       <c r="K428" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L428" t="n">
         <v>155.8</v>
@@ -22823,7 +22845,7 @@
         <v>486</v>
       </c>
       <c r="K429" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L429" t="n">
         <v>155.9</v>
@@ -22874,7 +22896,7 @@
         <v>487</v>
       </c>
       <c r="K430" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L430" t="n">
         <v>156.1</v>
@@ -22925,7 +22947,7 @@
         <v>487</v>
       </c>
       <c r="K431" t="n">
-        <v>29.41176470588236</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L431" t="n">
         <v>156.4</v>
@@ -22976,7 +22998,7 @@
         <v>487</v>
       </c>
       <c r="K432" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L432" t="n">
         <v>156.8</v>
@@ -23027,7 +23049,7 @@
         <v>488</v>
       </c>
       <c r="K433" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L433" t="n">
         <v>157.1</v>
@@ -23078,7 +23100,7 @@
         <v>490</v>
       </c>
       <c r="K434" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L434" t="n">
         <v>157.7</v>
@@ -23129,7 +23151,7 @@
         <v>491</v>
       </c>
       <c r="K435" t="n">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L435" t="n">
         <v>158.3</v>
@@ -23180,7 +23202,7 @@
         <v>491</v>
       </c>
       <c r="K436" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L436" t="n">
         <v>158.9</v>
@@ -23231,7 +23253,7 @@
         <v>493</v>
       </c>
       <c r="K437" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L437" t="n">
         <v>159.2</v>
@@ -23282,7 +23304,7 @@
         <v>493</v>
       </c>
       <c r="K438" t="n">
-        <v>41.17647058823529</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L438" t="n">
         <v>159.5</v>
@@ -23333,7 +23355,7 @@
         <v>494</v>
       </c>
       <c r="K439" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L439" t="n">
         <v>159.9</v>
@@ -23384,7 +23406,7 @@
         <v>494</v>
       </c>
       <c r="K440" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L440" t="n">
         <v>160.2</v>
@@ -23435,7 +23457,7 @@
         <v>496</v>
       </c>
       <c r="K441" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L441" t="n">
         <v>160.3</v>
@@ -23486,7 +23508,7 @@
         <v>496</v>
       </c>
       <c r="K442" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>160.4</v>
@@ -23537,7 +23559,7 @@
         <v>496</v>
       </c>
       <c r="K443" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L443" t="n">
         <v>160.4</v>
@@ -23588,7 +23610,7 @@
         <v>497</v>
       </c>
       <c r="K444" t="n">
-        <v>23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L444" t="n">
         <v>160.1</v>
@@ -23639,7 +23661,7 @@
         <v>499</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="L445" t="n">
         <v>159.5</v>
@@ -23690,7 +23712,7 @@
         <v>499</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L446" t="n">
         <v>158.9</v>
@@ -23741,7 +23763,7 @@
         <v>502</v>
       </c>
       <c r="K447" t="n">
-        <v>-25</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L447" t="n">
         <v>158.2</v>
@@ -23792,7 +23814,7 @@
         <v>503</v>
       </c>
       <c r="K448" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L448" t="n">
         <v>157.4</v>
@@ -23843,7 +23865,7 @@
         <v>504</v>
       </c>
       <c r="K449" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L449" t="n">
         <v>156.4</v>
@@ -23894,7 +23916,7 @@
         <v>504</v>
       </c>
       <c r="K450" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L450" t="n">
         <v>155.4</v>
@@ -23945,7 +23967,7 @@
         <v>504</v>
       </c>
       <c r="K451" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L451" t="n">
         <v>154.6</v>
@@ -23996,7 +24018,7 @@
         <v>504</v>
       </c>
       <c r="K452" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L452" t="n">
         <v>153.8</v>
@@ -24047,7 +24069,7 @@
         <v>505</v>
       </c>
       <c r="K453" t="n">
-        <v>-52.94117647058824</v>
+        <v>-100</v>
       </c>
       <c r="L453" t="n">
         <v>152.9</v>
@@ -24098,7 +24120,7 @@
         <v>506</v>
       </c>
       <c r="K454" t="n">
-        <v>-62.5</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L454" t="n">
         <v>152.2</v>
@@ -24200,7 +24222,7 @@
         <v>510</v>
       </c>
       <c r="K456" t="n">
-        <v>-47.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>151.3</v>
@@ -24251,7 +24273,7 @@
         <v>511</v>
       </c>
       <c r="K457" t="n">
-        <v>-44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>151.2</v>
@@ -24302,7 +24324,7 @@
         <v>511</v>
       </c>
       <c r="K458" t="n">
-        <v>-44.44444444444444</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L458" t="n">
         <v>151.2</v>
@@ -24353,7 +24375,7 @@
         <v>511</v>
       </c>
       <c r="K459" t="n">
-        <v>-52.94117647058824</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>151.3</v>
@@ -24404,7 +24426,7 @@
         <v>512</v>
       </c>
       <c r="K460" t="n">
-        <v>-55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>151.3</v>
@@ -24455,7 +24477,7 @@
         <v>513</v>
       </c>
       <c r="K461" t="n">
-        <v>-41.17647058823529</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L461" t="n">
         <v>151.4</v>
@@ -24506,7 +24528,7 @@
         <v>513</v>
       </c>
       <c r="K462" t="n">
-        <v>-41.17647058823529</v>
+        <v>25</v>
       </c>
       <c r="L462" t="n">
         <v>151.5</v>
@@ -24557,7 +24579,7 @@
         <v>513</v>
       </c>
       <c r="K463" t="n">
-        <v>-41.17647058823529</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L463" t="n">
         <v>151.7</v>
@@ -24608,7 +24630,7 @@
         <v>513</v>
       </c>
       <c r="K464" t="n">
-        <v>-37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>151.8</v>
@@ -24659,7 +24681,7 @@
         <v>516</v>
       </c>
       <c r="K465" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>152.3</v>
@@ -24710,7 +24732,7 @@
         <v>517</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L466" t="n">
         <v>152.6</v>
@@ -24761,7 +24783,7 @@
         <v>519</v>
       </c>
       <c r="K467" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L467" t="n">
         <v>152.8</v>
@@ -24812,7 +24834,7 @@
         <v>520</v>
       </c>
       <c r="K468" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L468" t="n">
         <v>152.9</v>
@@ -24863,7 +24885,7 @@
         <v>520</v>
       </c>
       <c r="K469" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L469" t="n">
         <v>153</v>
@@ -24914,7 +24936,7 @@
         <v>521</v>
       </c>
       <c r="K470" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>153.1</v>
@@ -24965,7 +24987,7 @@
         <v>522</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L471" t="n">
         <v>153</v>
@@ -25016,7 +25038,7 @@
         <v>525</v>
       </c>
       <c r="K472" t="n">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L472" t="n">
         <v>153.2</v>
@@ -25067,7 +25089,7 @@
         <v>527</v>
       </c>
       <c r="K473" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>153.2</v>
@@ -25118,7 +25140,7 @@
         <v>528</v>
       </c>
       <c r="K474" t="n">
-        <v>9.090909090909092</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L474" t="n">
         <v>153.3</v>
@@ -25169,7 +25191,7 @@
         <v>529</v>
       </c>
       <c r="K475" t="n">
-        <v>18.18181818181818</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L475" t="n">
         <v>153.2</v>
@@ -25220,7 +25242,7 @@
         <v>530</v>
       </c>
       <c r="K476" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L476" t="n">
         <v>153.1</v>
@@ -25271,7 +25293,7 @@
         <v>530</v>
       </c>
       <c r="K477" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L477" t="n">
         <v>153.2</v>
@@ -25322,7 +25344,7 @@
         <v>531</v>
       </c>
       <c r="K478" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L478" t="n">
         <v>153.5</v>
@@ -25373,7 +25395,7 @@
         <v>531</v>
       </c>
       <c r="K479" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L479" t="n">
         <v>153.8</v>
@@ -25424,7 +25446,7 @@
         <v>532</v>
       </c>
       <c r="K480" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L480" t="n">
         <v>154.1</v>
@@ -25475,7 +25497,7 @@
         <v>534</v>
       </c>
       <c r="K481" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L481" t="n">
         <v>154.7</v>
@@ -25526,7 +25548,7 @@
         <v>534</v>
       </c>
       <c r="K482" t="n">
-        <v>23.80952380952381</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L482" t="n">
         <v>155</v>
@@ -25577,7 +25599,7 @@
         <v>535</v>
       </c>
       <c r="K483" t="n">
-        <v>18.18181818181818</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L483" t="n">
         <v>155.4</v>
@@ -25628,7 +25650,7 @@
         <v>536</v>
       </c>
       <c r="K484" t="n">
-        <v>13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L484" t="n">
         <v>155.6</v>
@@ -25679,7 +25701,7 @@
         <v>538</v>
       </c>
       <c r="K485" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L485" t="n">
         <v>155.5</v>
@@ -25730,7 +25752,7 @@
         <v>540</v>
       </c>
       <c r="K486" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>155.5</v>
@@ -25781,7 +25803,7 @@
         <v>543</v>
       </c>
       <c r="K487" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>155.2</v>
@@ -25832,7 +25854,7 @@
         <v>543</v>
       </c>
       <c r="K488" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>154.8</v>
@@ -25883,7 +25905,7 @@
         <v>546</v>
       </c>
       <c r="K489" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>154.7</v>
@@ -25934,7 +25956,7 @@
         <v>546</v>
       </c>
       <c r="K490" t="n">
-        <v>12</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L490" t="n">
         <v>154.7</v>
@@ -25985,7 +26007,7 @@
         <v>547</v>
       </c>
       <c r="K491" t="n">
-        <v>12</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L491" t="n">
         <v>154.4</v>
@@ -26036,7 +26058,7 @@
         <v>547</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L492" t="n">
         <v>154.1</v>
@@ -26087,7 +26109,7 @@
         <v>547</v>
       </c>
       <c r="K493" t="n">
-        <v>10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L493" t="n">
         <v>153.9</v>
@@ -26138,7 +26160,7 @@
         <v>547</v>
       </c>
       <c r="K494" t="n">
-        <v>5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L494" t="n">
         <v>153.8</v>
@@ -26189,7 +26211,7 @@
         <v>548</v>
       </c>
       <c r="K495" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L495" t="n">
         <v>153.8</v>
@@ -26240,7 +26262,7 @@
         <v>549</v>
       </c>
       <c r="K496" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>153.5</v>
@@ -26291,7 +26313,7 @@
         <v>550</v>
       </c>
       <c r="K497" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L497" t="n">
         <v>153.4</v>
@@ -26342,7 +26364,7 @@
         <v>551</v>
       </c>
       <c r="K498" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L498" t="n">
         <v>153.4</v>
@@ -26393,7 +26415,7 @@
         <v>552</v>
       </c>
       <c r="K499" t="n">
-        <v>-23.80952380952381</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L499" t="n">
         <v>153</v>
@@ -26444,7 +26466,7 @@
         <v>552</v>
       </c>
       <c r="K500" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L500" t="n">
         <v>152.6</v>
@@ -26495,7 +26517,7 @@
         <v>554</v>
       </c>
       <c r="K501" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L501" t="n">
         <v>152.5</v>
@@ -26546,7 +26568,7 @@
         <v>555</v>
       </c>
       <c r="K502" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>152.5</v>
@@ -26597,7 +26619,7 @@
         <v>555</v>
       </c>
       <c r="K503" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>152.5</v>
@@ -26648,7 +26670,7 @@
         <v>557</v>
       </c>
       <c r="K504" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L504" t="n">
         <v>152.7</v>
@@ -26699,7 +26721,7 @@
         <v>558</v>
       </c>
       <c r="K505" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L505" t="n">
         <v>153.1</v>
@@ -26750,7 +26772,7 @@
         <v>559</v>
       </c>
       <c r="K506" t="n">
-        <v>5.263157894736842</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L506" t="n">
         <v>153.5</v>
@@ -26801,7 +26823,7 @@
         <v>560</v>
       </c>
       <c r="K507" t="n">
-        <v>29.41176470588236</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L507" t="n">
         <v>154.1</v>
@@ -26852,7 +26874,7 @@
         <v>561</v>
       </c>
       <c r="K508" t="n">
-        <v>22.22222222222222</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L508" t="n">
         <v>154.5</v>
@@ -26903,7 +26925,7 @@
         <v>564</v>
       </c>
       <c r="K509" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L509" t="n">
         <v>154.7</v>
@@ -26954,7 +26976,7 @@
         <v>566</v>
       </c>
       <c r="K510" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L510" t="n">
         <v>155.1</v>
@@ -27005,7 +27027,7 @@
         <v>567</v>
       </c>
       <c r="K511" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L511" t="n">
         <v>155.4</v>
@@ -27107,7 +27129,7 @@
         <v>572</v>
       </c>
       <c r="K513" t="n">
-        <v>12</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L513" t="n">
         <v>155.7</v>
@@ -27158,7 +27180,7 @@
         <v>572</v>
       </c>
       <c r="K514" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>155.8</v>
@@ -27209,7 +27231,7 @@
         <v>572</v>
       </c>
       <c r="K515" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L515" t="n">
         <v>155.8</v>
@@ -27260,7 +27282,7 @@
         <v>572</v>
       </c>
       <c r="K516" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>155.9</v>
@@ -27311,7 +27333,7 @@
         <v>573</v>
       </c>
       <c r="K517" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>155.8</v>
@@ -27362,7 +27384,7 @@
         <v>573</v>
       </c>
       <c r="K518" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L518" t="n">
         <v>155.8</v>
@@ -27413,7 +27435,7 @@
         <v>573</v>
       </c>
       <c r="K519" t="n">
-        <v>23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L519" t="n">
         <v>156.1</v>
@@ -27464,7 +27486,7 @@
         <v>574</v>
       </c>
       <c r="K520" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L520" t="n">
         <v>156.3</v>
@@ -27515,7 +27537,7 @@
         <v>575</v>
       </c>
       <c r="K521" t="n">
-        <v>23.80952380952381</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L521" t="n">
         <v>156.5</v>
@@ -27566,7 +27588,7 @@
         <v>576</v>
       </c>
       <c r="K522" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>156.8</v>
@@ -27617,7 +27639,7 @@
         <v>577</v>
       </c>
       <c r="K523" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L523" t="n">
         <v>156.9</v>
@@ -27668,7 +27690,7 @@
         <v>577</v>
       </c>
       <c r="K524" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L524" t="n">
         <v>157</v>
@@ -27723,7 +27745,7 @@
         <v>577</v>
       </c>
       <c r="K525" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L525" t="n">
         <v>157.1</v>
@@ -27780,7 +27802,7 @@
         <v>577</v>
       </c>
       <c r="K526" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L526" t="n">
         <v>157.2</v>
@@ -27839,7 +27861,7 @@
         <v>578</v>
       </c>
       <c r="K527" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L527" t="n">
         <v>157.3</v>
@@ -27953,7 +27975,7 @@
         <v>580</v>
       </c>
       <c r="K529" t="n">
-        <v>12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>157.2</v>
@@ -28010,7 +28032,7 @@
         <v>580</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L530" t="n">
         <v>157</v>
@@ -28067,7 +28089,7 @@
         <v>580</v>
       </c>
       <c r="K531" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L531" t="n">
         <v>156.7</v>
@@ -28124,7 +28146,7 @@
         <v>580</v>
       </c>
       <c r="K532" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L532" t="n">
         <v>156.5</v>
@@ -28181,7 +28203,7 @@
         <v>581</v>
       </c>
       <c r="K533" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L533" t="n">
         <v>156.3</v>
@@ -28238,7 +28260,7 @@
         <v>582</v>
       </c>
       <c r="K534" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L534" t="n">
         <v>156</v>
@@ -28295,7 +28317,7 @@
         <v>582</v>
       </c>
       <c r="K535" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L535" t="n">
         <v>155.7</v>
@@ -28352,7 +28374,7 @@
         <v>583</v>
       </c>
       <c r="K536" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L536" t="n">
         <v>155.3</v>
@@ -28409,7 +28431,7 @@
         <v>584</v>
       </c>
       <c r="K537" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L537" t="n">
         <v>154.9</v>
@@ -28466,7 +28488,7 @@
         <v>584</v>
       </c>
       <c r="K538" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L538" t="n">
         <v>154.6</v>
@@ -28523,7 +28545,7 @@
         <v>585</v>
       </c>
       <c r="K539" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L539" t="n">
         <v>154.5</v>
@@ -28637,7 +28659,7 @@
         <v>586</v>
       </c>
       <c r="K541" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L541" t="n">
         <v>154.1</v>
@@ -28694,7 +28716,7 @@
         <v>586</v>
       </c>
       <c r="K542" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L542" t="n">
         <v>153.9</v>
@@ -28751,7 +28773,7 @@
         <v>586</v>
       </c>
       <c r="K543" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L543" t="n">
         <v>153.6</v>
@@ -28808,7 +28830,7 @@
         <v>586</v>
       </c>
       <c r="K544" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50</v>
       </c>
       <c r="L544" t="n">
         <v>153.4</v>
@@ -28865,7 +28887,7 @@
         <v>586</v>
       </c>
       <c r="K545" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L545" t="n">
         <v>153.2</v>
@@ -28922,7 +28944,7 @@
         <v>586</v>
       </c>
       <c r="K546" t="n">
-        <v>-55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L546" t="n">
         <v>153.1</v>
@@ -28979,7 +29001,7 @@
         <v>586</v>
       </c>
       <c r="K547" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>153.1</v>
@@ -29030,7 +29052,7 @@
         <v>586</v>
       </c>
       <c r="K548" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L548" t="n">
         <v>153.1</v>
@@ -29081,7 +29103,7 @@
         <v>589</v>
       </c>
       <c r="K549" t="n">
-        <v>-55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L549" t="n">
         <v>152.7</v>
@@ -29132,7 +29154,7 @@
         <v>591</v>
       </c>
       <c r="K550" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L550" t="n">
         <v>152.6</v>
@@ -29285,7 +29307,7 @@
         <v>592</v>
       </c>
       <c r="K553" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L553" t="n">
         <v>152</v>
@@ -29336,7 +29358,7 @@
         <v>593</v>
       </c>
       <c r="K554" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L554" t="n">
         <v>151.9</v>
@@ -29387,7 +29409,7 @@
         <v>595</v>
       </c>
       <c r="K555" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L555" t="n">
         <v>152</v>
@@ -29438,7 +29460,7 @@
         <v>596</v>
       </c>
       <c r="K556" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L556" t="n">
         <v>152</v>
@@ -29540,7 +29562,7 @@
         <v>596</v>
       </c>
       <c r="K558" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L558" t="n">
         <v>152</v>
@@ -29591,7 +29613,7 @@
         <v>597</v>
       </c>
       <c r="K559" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>152.2</v>
@@ -29642,7 +29664,7 @@
         <v>598</v>
       </c>
       <c r="K560" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L560" t="n">
         <v>152.3</v>
@@ -29693,7 +29715,7 @@
         <v>599</v>
       </c>
       <c r="K561" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L561" t="n">
         <v>152.4</v>
@@ -29744,7 +29766,7 @@
         <v>600</v>
       </c>
       <c r="K562" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L562" t="n">
         <v>152.4</v>
@@ -29795,7 +29817,7 @@
         <v>601</v>
       </c>
       <c r="K563" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>152.5</v>
@@ -29846,7 +29868,7 @@
         <v>601</v>
       </c>
       <c r="K564" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>152.5</v>
@@ -29897,7 +29919,7 @@
         <v>601</v>
       </c>
       <c r="K565" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L565" t="n">
         <v>152.3</v>
@@ -29948,7 +29970,7 @@
         <v>601</v>
       </c>
       <c r="K566" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L566" t="n">
         <v>152.2</v>
@@ -29999,7 +30021,7 @@
         <v>601</v>
       </c>
       <c r="K567" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L567" t="n">
         <v>152.1</v>
@@ -30050,7 +30072,7 @@
         <v>601</v>
       </c>
       <c r="K568" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>152</v>
@@ -30101,7 +30123,7 @@
         <v>601</v>
       </c>
       <c r="K569" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L569" t="n">
         <v>152</v>
@@ -30254,7 +30276,7 @@
         <v>602</v>
       </c>
       <c r="K572" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L572" t="n">
         <v>151.8</v>
@@ -30305,7 +30327,7 @@
         <v>602</v>
       </c>
       <c r="K573" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L573" t="n">
         <v>151.7</v>
@@ -30356,7 +30378,7 @@
         <v>602</v>
       </c>
       <c r="K574" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L574" t="n">
         <v>151.6</v>
@@ -30407,7 +30429,7 @@
         <v>604</v>
       </c>
       <c r="K575" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L575" t="n">
         <v>151.7</v>
@@ -30458,7 +30480,7 @@
         <v>605</v>
       </c>
       <c r="K576" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>151.7</v>
@@ -30509,7 +30531,7 @@
         <v>606</v>
       </c>
       <c r="K577" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L577" t="n">
         <v>151.8</v>
@@ -30560,7 +30582,7 @@
         <v>606</v>
       </c>
       <c r="K578" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L578" t="n">
         <v>151.9</v>
@@ -30611,7 +30633,7 @@
         <v>606</v>
       </c>
       <c r="K579" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L579" t="n">
         <v>152</v>
@@ -30662,7 +30684,7 @@
         <v>607</v>
       </c>
       <c r="K580" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L580" t="n">
         <v>152</v>
@@ -30713,7 +30735,7 @@
         <v>607</v>
       </c>
       <c r="K581" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L581" t="n">
         <v>152.1</v>
@@ -30764,7 +30786,7 @@
         <v>609</v>
       </c>
       <c r="K582" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L582" t="n">
         <v>152.4</v>
@@ -30815,7 +30837,7 @@
         <v>611</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L583" t="n">
         <v>152.5</v>
@@ -30866,7 +30888,7 @@
         <v>614</v>
       </c>
       <c r="K584" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L584" t="n">
         <v>152.9</v>
@@ -30917,7 +30939,7 @@
         <v>614</v>
       </c>
       <c r="K585" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L585" t="n">
         <v>153.1</v>
@@ -30968,7 +30990,7 @@
         <v>615</v>
       </c>
       <c r="K586" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L586" t="n">
         <v>153.5</v>
@@ -31070,7 +31092,7 @@
         <v>618</v>
       </c>
       <c r="K588" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L588" t="n">
         <v>154.1</v>
@@ -31121,7 +31143,7 @@
         <v>619</v>
       </c>
       <c r="K589" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L589" t="n">
         <v>154.6</v>
@@ -31172,7 +31194,7 @@
         <v>620</v>
       </c>
       <c r="K590" t="n">
-        <v>36.84210526315789</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L590" t="n">
         <v>155.3</v>
@@ -31223,7 +31245,7 @@
         <v>621</v>
       </c>
       <c r="K591" t="n">
-        <v>47.36842105263158</v>
+        <v>50</v>
       </c>
       <c r="L591" t="n">
         <v>156.1</v>
@@ -31274,7 +31296,7 @@
         <v>621</v>
       </c>
       <c r="K592" t="n">
-        <v>47.36842105263158</v>
+        <v>80</v>
       </c>
       <c r="L592" t="n">
         <v>156.7</v>
@@ -31325,7 +31347,7 @@
         <v>624</v>
       </c>
       <c r="K593" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L593" t="n">
         <v>157.2</v>
@@ -31376,7 +31398,7 @@
         <v>625</v>
       </c>
       <c r="K594" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L594" t="n">
         <v>157.3</v>
@@ -31427,7 +31449,7 @@
         <v>626</v>
       </c>
       <c r="K595" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L595" t="n">
         <v>157.3</v>
@@ -31478,7 +31500,7 @@
         <v>627</v>
       </c>
       <c r="K596" t="n">
-        <v>18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L596" t="n">
         <v>157.3</v>
@@ -31529,7 +31551,7 @@
         <v>628</v>
       </c>
       <c r="K597" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L597" t="n">
         <v>157.5</v>
@@ -31580,7 +31602,7 @@
         <v>628</v>
       </c>
       <c r="K598" t="n">
-        <v>18.18181818181818</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L598" t="n">
         <v>157.5</v>
@@ -31631,7 +31653,7 @@
         <v>629</v>
       </c>
       <c r="K599" t="n">
-        <v>13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L599" t="n">
         <v>157.3</v>
@@ -31682,7 +31704,7 @@
         <v>629</v>
       </c>
       <c r="K600" t="n">
-        <v>18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L600" t="n">
         <v>157</v>
@@ -31733,7 +31755,7 @@
         <v>630</v>
       </c>
       <c r="K601" t="n">
-        <v>13.04347826086956</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L601" t="n">
         <v>156.5</v>
@@ -31784,7 +31806,7 @@
         <v>630</v>
       </c>
       <c r="K602" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L602" t="n">
         <v>156</v>
@@ -31835,7 +31857,7 @@
         <v>631</v>
       </c>
       <c r="K603" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>155.9</v>
@@ -31886,7 +31908,7 @@
         <v>631</v>
       </c>
       <c r="K604" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L604" t="n">
         <v>155.9</v>
@@ -31937,7 +31959,7 @@
         <v>631</v>
       </c>
       <c r="K605" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>156</v>
@@ -31988,7 +32010,7 @@
         <v>631</v>
       </c>
       <c r="K606" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L606" t="n">
         <v>156</v>
@@ -32039,7 +32061,7 @@
         <v>632</v>
       </c>
       <c r="K607" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L607" t="n">
         <v>156</v>
@@ -32090,7 +32112,7 @@
         <v>635</v>
       </c>
       <c r="K608" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L608" t="n">
         <v>155.7</v>
@@ -32141,7 +32163,7 @@
         <v>636</v>
       </c>
       <c r="K609" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L609" t="n">
         <v>155.6</v>
@@ -32192,7 +32214,7 @@
         <v>636</v>
       </c>
       <c r="K610" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>155.5</v>
@@ -32243,7 +32265,7 @@
         <v>637</v>
       </c>
       <c r="K611" t="n">
-        <v>-25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L611" t="n">
         <v>155.6</v>
@@ -32294,7 +32316,7 @@
         <v>638</v>
       </c>
       <c r="K612" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L612" t="n">
         <v>155.6</v>
@@ -32345,7 +32367,7 @@
         <v>639</v>
       </c>
       <c r="K613" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>155.6</v>
@@ -32396,7 +32418,7 @@
         <v>640</v>
       </c>
       <c r="K614" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L614" t="n">
         <v>155.5</v>
@@ -32447,7 +32469,7 @@
         <v>640</v>
       </c>
       <c r="K615" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L615" t="n">
         <v>155.4</v>
@@ -32498,7 +32520,7 @@
         <v>641</v>
       </c>
       <c r="K616" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L616" t="n">
         <v>155.4</v>
@@ -32549,7 +32571,7 @@
         <v>642</v>
       </c>
       <c r="K617" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L617" t="n">
         <v>155.2</v>
@@ -32600,7 +32622,7 @@
         <v>644</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L618" t="n">
         <v>155.5</v>
@@ -32651,7 +32673,7 @@
         <v>645</v>
       </c>
       <c r="K619" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L619" t="n">
         <v>155.6</v>
@@ -32702,7 +32724,7 @@
         <v>646</v>
       </c>
       <c r="K620" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L620" t="n">
         <v>155.8</v>
@@ -32753,7 +32775,7 @@
         <v>647</v>
       </c>
       <c r="K621" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L621" t="n">
         <v>155.8</v>
@@ -32804,7 +32826,7 @@
         <v>649</v>
       </c>
       <c r="K622" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L622" t="n">
         <v>155.7</v>
@@ -32855,7 +32877,7 @@
         <v>650</v>
       </c>
       <c r="K623" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>155.6</v>
@@ -32906,7 +32928,7 @@
         <v>651</v>
       </c>
       <c r="K624" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L624" t="n">
         <v>155.5</v>
@@ -32957,7 +32979,7 @@
         <v>651</v>
       </c>
       <c r="K625" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L625" t="n">
         <v>155.4</v>
@@ -33008,7 +33030,7 @@
         <v>651</v>
       </c>
       <c r="K626" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L626" t="n">
         <v>155.2</v>
@@ -33059,7 +33081,7 @@
         <v>652</v>
       </c>
       <c r="K627" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L627" t="n">
         <v>155.2</v>
@@ -33110,7 +33132,7 @@
         <v>653</v>
       </c>
       <c r="K628" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L628" t="n">
         <v>154.9</v>
@@ -33161,7 +33183,7 @@
         <v>654</v>
       </c>
       <c r="K629" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L629" t="n">
         <v>154.6</v>
@@ -33212,7 +33234,7 @@
         <v>655</v>
       </c>
       <c r="K630" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L630" t="n">
         <v>154.3</v>
@@ -33263,7 +33285,7 @@
         <v>655</v>
       </c>
       <c r="K631" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>154.1</v>
@@ -33314,7 +33336,7 @@
         <v>656</v>
       </c>
       <c r="K632" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L632" t="n">
         <v>154</v>
@@ -33365,7 +33387,7 @@
         <v>656</v>
       </c>
       <c r="K633" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L633" t="n">
         <v>153.8</v>
@@ -33416,7 +33438,7 @@
         <v>656</v>
       </c>
       <c r="K634" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L634" t="n">
         <v>153.7</v>
@@ -33467,7 +33489,7 @@
         <v>657</v>
       </c>
       <c r="K635" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L635" t="n">
         <v>153.5</v>
@@ -33518,7 +33540,7 @@
         <v>658</v>
       </c>
       <c r="K636" t="n">
-        <v>-29.41176470588236</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L636" t="n">
         <v>153.2</v>
@@ -33569,7 +33591,7 @@
         <v>658</v>
       </c>
       <c r="K637" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L637" t="n">
         <v>152.8</v>
@@ -33620,7 +33642,7 @@
         <v>659</v>
       </c>
       <c r="K638" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L638" t="n">
         <v>152.6</v>
@@ -33671,7 +33693,7 @@
         <v>659</v>
       </c>
       <c r="K639" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L639" t="n">
         <v>152.5</v>
@@ -33722,7 +33744,7 @@
         <v>660</v>
       </c>
       <c r="K640" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L640" t="n">
         <v>152.4</v>
@@ -33773,7 +33795,7 @@
         <v>661</v>
       </c>
       <c r="K641" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L641" t="n">
         <v>152.4</v>
@@ -33875,7 +33897,7 @@
         <v>664</v>
       </c>
       <c r="K643" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>152.3</v>
@@ -33926,7 +33948,7 @@
         <v>665</v>
       </c>
       <c r="K644" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>152.2</v>
@@ -33977,7 +33999,7 @@
         <v>665</v>
       </c>
       <c r="K645" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L645" t="n">
         <v>152.2</v>
@@ -34028,7 +34050,7 @@
         <v>665</v>
       </c>
       <c r="K646" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L646" t="n">
         <v>152.3</v>
@@ -34079,7 +34101,7 @@
         <v>665</v>
       </c>
       <c r="K647" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>152.4</v>
@@ -34130,7 +34152,7 @@
         <v>666</v>
       </c>
       <c r="K648" t="n">
-        <v>-23.07692307692308</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L648" t="n">
         <v>152.3</v>
@@ -34181,7 +34203,7 @@
         <v>667</v>
       </c>
       <c r="K649" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L649" t="n">
         <v>152.3</v>
@@ -34232,7 +34254,7 @@
         <v>667</v>
       </c>
       <c r="K650" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L650" t="n">
         <v>152.2</v>
@@ -34283,7 +34305,7 @@
         <v>667</v>
       </c>
       <c r="K651" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L651" t="n">
         <v>152</v>
@@ -34334,7 +34356,7 @@
         <v>668</v>
       </c>
       <c r="K652" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L652" t="n">
         <v>151.9</v>
@@ -34385,7 +34407,7 @@
         <v>670</v>
       </c>
       <c r="K653" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L653" t="n">
         <v>151.9</v>
@@ -34436,7 +34458,7 @@
         <v>672</v>
       </c>
       <c r="K654" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L654" t="n">
         <v>151.8</v>
@@ -34538,7 +34560,7 @@
         <v>673</v>
       </c>
       <c r="K656" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L656" t="n">
         <v>151.8</v>
@@ -34589,7 +34611,7 @@
         <v>674</v>
       </c>
       <c r="K657" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L657" t="n">
         <v>151.9</v>
@@ -34640,7 +34662,7 @@
         <v>676</v>
       </c>
       <c r="K658" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L658" t="n">
         <v>151.9</v>
@@ -34691,7 +34713,7 @@
         <v>676</v>
       </c>
       <c r="K659" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L659" t="n">
         <v>151.8</v>
@@ -34742,7 +34764,7 @@
         <v>678</v>
       </c>
       <c r="K660" t="n">
-        <v>-22.22222222222222</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L660" t="n">
         <v>151.5</v>
@@ -34793,7 +34815,7 @@
         <v>678</v>
       </c>
       <c r="K661" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L661" t="n">
         <v>151.2</v>
@@ -34844,7 +34866,7 @@
         <v>680</v>
       </c>
       <c r="K662" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L662" t="n">
         <v>151.2</v>
@@ -34895,7 +34917,7 @@
         <v>682</v>
       </c>
       <c r="K663" t="n">
-        <v>-22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L663" t="n">
         <v>150.8</v>
@@ -34946,7 +34968,7 @@
         <v>682</v>
       </c>
       <c r="K664" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L664" t="n">
         <v>150.6</v>
@@ -34997,7 +35019,7 @@
         <v>683</v>
       </c>
       <c r="K665" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L665" t="n">
         <v>150.4</v>
@@ -35048,7 +35070,7 @@
         <v>683</v>
       </c>
       <c r="K666" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L666" t="n">
         <v>150.2</v>
@@ -35099,7 +35121,7 @@
         <v>683</v>
       </c>
       <c r="K667" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L667" t="n">
         <v>149.9</v>
@@ -35150,7 +35172,7 @@
         <v>684</v>
       </c>
       <c r="K668" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L668" t="n">
         <v>149.7</v>
@@ -35201,7 +35223,7 @@
         <v>684</v>
       </c>
       <c r="K669" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L669" t="n">
         <v>149.5</v>
@@ -35252,7 +35274,7 @@
         <v>685</v>
       </c>
       <c r="K670" t="n">
-        <v>-22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L670" t="n">
         <v>149.4</v>
@@ -35303,7 +35325,7 @@
         <v>686</v>
       </c>
       <c r="K671" t="n">
-        <v>-26.31578947368421</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L671" t="n">
         <v>149.2</v>
@@ -35354,7 +35376,7 @@
         <v>688</v>
       </c>
       <c r="K672" t="n">
-        <v>-30</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L672" t="n">
         <v>148.6</v>
@@ -35405,7 +35427,7 @@
         <v>689</v>
       </c>
       <c r="K673" t="n">
-        <v>-47.36842105263158</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L673" t="n">
         <v>148.1</v>
@@ -35456,7 +35478,7 @@
         <v>692</v>
       </c>
       <c r="K674" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L674" t="n">
         <v>147.3</v>
@@ -35507,7 +35529,7 @@
         <v>697</v>
       </c>
       <c r="K675" t="n">
-        <v>-25</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L675" t="n">
         <v>146.9</v>
@@ -35558,7 +35580,7 @@
         <v>698</v>
       </c>
       <c r="K676" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L676" t="n">
         <v>146.4</v>
@@ -35609,7 +35631,7 @@
         <v>698</v>
       </c>
       <c r="K677" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L677" t="n">
         <v>145.9</v>
@@ -35660,7 +35682,7 @@
         <v>700</v>
       </c>
       <c r="K678" t="n">
-        <v>-33.33333333333333</v>
+        <v>-37.5</v>
       </c>
       <c r="L678" t="n">
         <v>145.3</v>
@@ -35711,7 +35733,7 @@
         <v>701</v>
       </c>
       <c r="K679" t="n">
-        <v>-36</v>
+        <v>-37.5</v>
       </c>
       <c r="L679" t="n">
         <v>144.6</v>
@@ -35762,7 +35784,7 @@
         <v>701</v>
       </c>
       <c r="K680" t="n">
-        <v>-30.43478260869566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L680" t="n">
         <v>144</v>
@@ -35813,7 +35835,7 @@
         <v>702</v>
       </c>
       <c r="K681" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L681" t="n">
         <v>143.4</v>
@@ -35864,7 +35886,7 @@
         <v>703</v>
       </c>
       <c r="K682" t="n">
-        <v>-39.1304347826087</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L682" t="n">
         <v>143.1</v>
@@ -35915,7 +35937,7 @@
         <v>703</v>
       </c>
       <c r="K683" t="n">
-        <v>-33.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L683" t="n">
         <v>142.9</v>
@@ -35966,7 +35988,7 @@
         <v>703</v>
       </c>
       <c r="K684" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L684" t="n">
         <v>143</v>
@@ -36017,7 +36039,7 @@
         <v>704</v>
       </c>
       <c r="K685" t="n">
-        <v>-42.85714285714285</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L685" t="n">
         <v>142.5</v>
@@ -36068,7 +36090,7 @@
         <v>705</v>
       </c>
       <c r="K686" t="n">
-        <v>-36.36363636363637</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L686" t="n">
         <v>142.2</v>
@@ -36119,7 +36141,7 @@
         <v>706</v>
       </c>
       <c r="K687" t="n">
-        <v>-39.1304347826087</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L687" t="n">
         <v>141.8</v>
@@ -36170,7 +36192,7 @@
         <v>706</v>
       </c>
       <c r="K688" t="n">
-        <v>-36.36363636363637</v>
+        <v>-20</v>
       </c>
       <c r="L688" t="n">
         <v>141.6</v>
@@ -36221,7 +36243,7 @@
         <v>707</v>
       </c>
       <c r="K689" t="n">
-        <v>-39.1304347826087</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L689" t="n">
         <v>141.4</v>
@@ -36272,7 +36294,7 @@
         <v>708</v>
       </c>
       <c r="K690" t="n">
-        <v>-30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>141.3</v>
@@ -36323,7 +36345,7 @@
         <v>708</v>
       </c>
       <c r="K691" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L691" t="n">
         <v>141.3</v>
@@ -36374,7 +36396,7 @@
         <v>711</v>
       </c>
       <c r="K692" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L692" t="n">
         <v>140.9</v>
@@ -36425,7 +36447,7 @@
         <v>711</v>
       </c>
       <c r="K693" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L693" t="n">
         <v>140.5</v>
@@ -36476,7 +36498,7 @@
         <v>711</v>
       </c>
       <c r="K694" t="n">
-        <v>-15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L694" t="n">
         <v>140.1</v>
@@ -36527,7 +36549,7 @@
         <v>713</v>
       </c>
       <c r="K695" t="n">
-        <v>-37.5</v>
+        <v>-25</v>
       </c>
       <c r="L695" t="n">
         <v>140</v>
@@ -36578,7 +36600,7 @@
         <v>714</v>
       </c>
       <c r="K696" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L696" t="n">
         <v>139.9</v>
@@ -36629,7 +36651,7 @@
         <v>716</v>
       </c>
       <c r="K697" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L697" t="n">
         <v>139.7</v>
@@ -36680,7 +36702,7 @@
         <v>717</v>
       </c>
       <c r="K698" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L698" t="n">
         <v>139.6</v>
@@ -36731,7 +36753,7 @@
         <v>719</v>
       </c>
       <c r="K699" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L699" t="n">
         <v>139.8</v>
@@ -36782,7 +36804,7 @@
         <v>720</v>
       </c>
       <c r="K700" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L700" t="n">
         <v>139.8</v>
@@ -36833,7 +36855,7 @@
         <v>720</v>
       </c>
       <c r="K701" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L701" t="n">
         <v>139.8</v>
@@ -36884,7 +36906,7 @@
         <v>721</v>
       </c>
       <c r="K702" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L702" t="n">
         <v>140.2</v>
@@ -36935,7 +36957,7 @@
         <v>722</v>
       </c>
       <c r="K703" t="n">
-        <v>5.263157894736842</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L703" t="n">
         <v>140.7</v>
@@ -36986,7 +37008,7 @@
         <v>723</v>
       </c>
       <c r="K704" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L704" t="n">
         <v>141.1</v>
@@ -37037,7 +37059,7 @@
         <v>724</v>
       </c>
       <c r="K705" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L705" t="n">
         <v>141.4</v>
@@ -37088,7 +37110,7 @@
         <v>724</v>
       </c>
       <c r="K706" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L706" t="n">
         <v>141.6</v>
@@ -37139,7 +37161,7 @@
         <v>725</v>
       </c>
       <c r="K707" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L707" t="n">
         <v>141.9</v>
@@ -37190,7 +37212,7 @@
         <v>725</v>
       </c>
       <c r="K708" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L708" t="n">
         <v>142.1</v>
@@ -37241,7 +37263,7 @@
         <v>727</v>
       </c>
       <c r="K709" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L709" t="n">
         <v>142.3</v>
@@ -37292,7 +37314,7 @@
         <v>728</v>
       </c>
       <c r="K710" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L710" t="n">
         <v>142.7</v>
@@ -37343,7 +37365,7 @@
         <v>729</v>
       </c>
       <c r="K711" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L711" t="n">
         <v>143</v>
@@ -37394,7 +37416,7 @@
         <v>730</v>
       </c>
       <c r="K712" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L712" t="n">
         <v>143.1</v>
@@ -37445,7 +37467,7 @@
         <v>731</v>
       </c>
       <c r="K713" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L713" t="n">
         <v>143.2</v>
@@ -37496,7 +37518,7 @@
         <v>732</v>
       </c>
       <c r="K714" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L714" t="n">
         <v>143.3</v>
@@ -37547,7 +37569,7 @@
         <v>733</v>
       </c>
       <c r="K715" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L715" t="n">
         <v>143.4</v>
@@ -37598,7 +37620,7 @@
         <v>733</v>
       </c>
       <c r="K716" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L716" t="n">
         <v>143.5</v>
@@ -37700,7 +37722,7 @@
         <v>735</v>
       </c>
       <c r="K718" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L718" t="n">
         <v>144</v>
@@ -37751,7 +37773,7 @@
         <v>736</v>
       </c>
       <c r="K719" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L719" t="n">
         <v>143.9</v>
@@ -37802,7 +37824,7 @@
         <v>737</v>
       </c>
       <c r="K720" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L720" t="n">
         <v>143.6</v>
@@ -37853,7 +37875,7 @@
         <v>737</v>
       </c>
       <c r="K721" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L721" t="n">
         <v>143.4</v>
@@ -37904,7 +37926,7 @@
         <v>743</v>
       </c>
       <c r="K722" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L722" t="n">
         <v>143.9</v>
@@ -37955,7 +37977,7 @@
         <v>746</v>
       </c>
       <c r="K723" t="n">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L723" t="n">
         <v>144</v>
@@ -38006,7 +38028,7 @@
         <v>747</v>
       </c>
       <c r="K724" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L724" t="n">
         <v>144.1</v>
@@ -38057,7 +38079,7 @@
         <v>748</v>
       </c>
       <c r="K725" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L725" t="n">
         <v>144</v>
@@ -38108,7 +38130,7 @@
         <v>748</v>
       </c>
       <c r="K726" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L726" t="n">
         <v>143.9</v>
@@ -38159,7 +38181,7 @@
         <v>749</v>
       </c>
       <c r="K727" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L727" t="n">
         <v>143.8</v>
@@ -38210,7 +38232,7 @@
         <v>757</v>
       </c>
       <c r="K728" t="n">
-        <v>31.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L728" t="n">
         <v>144.6</v>
@@ -38261,7 +38283,7 @@
         <v>760</v>
       </c>
       <c r="K729" t="n">
-        <v>33.33333333333333</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L729" t="n">
         <v>145.8</v>
@@ -38312,7 +38334,7 @@
         <v>763</v>
       </c>
       <c r="K730" t="n">
-        <v>20</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L730" t="n">
         <v>146.8</v>
@@ -38363,7 +38385,7 @@
         <v>763</v>
       </c>
       <c r="K731" t="n">
-        <v>23.52941176470588</v>
+        <v>20</v>
       </c>
       <c r="L731" t="n">
         <v>147.8</v>
@@ -38414,7 +38436,7 @@
         <v>765</v>
       </c>
       <c r="K732" t="n">
-        <v>20</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L732" t="n">
         <v>148</v>
@@ -38465,7 +38487,7 @@
         <v>765</v>
       </c>
       <c r="K733" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L733" t="n">
         <v>148.5</v>
@@ -38516,7 +38538,7 @@
         <v>765</v>
       </c>
       <c r="K734" t="n">
-        <v>21.21212121212121</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L734" t="n">
         <v>149.1</v>
@@ -38567,7 +38589,7 @@
         <v>765</v>
       </c>
       <c r="K735" t="n">
-        <v>18.75</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L735" t="n">
         <v>149.8</v>
@@ -38618,7 +38640,7 @@
         <v>766</v>
       </c>
       <c r="K736" t="n">
-        <v>15.15151515151515</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L736" t="n">
         <v>150.4</v>
@@ -38669,7 +38691,7 @@
         <v>767</v>
       </c>
       <c r="K737" t="n">
-        <v>9.090909090909092</v>
+        <v>-40</v>
       </c>
       <c r="L737" t="n">
         <v>150.8</v>
@@ -38720,7 +38742,7 @@
         <v>769</v>
       </c>
       <c r="K738" t="n">
-        <v>17.64705882352941</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L738" t="n">
         <v>150.6</v>
@@ -38771,7 +38793,7 @@
         <v>769</v>
       </c>
       <c r="K739" t="n">
-        <v>21.21212121212121</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L739" t="n">
         <v>150.1</v>
@@ -38822,7 +38844,7 @@
         <v>770</v>
       </c>
       <c r="K740" t="n">
-        <v>27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L740" t="n">
         <v>150</v>
@@ -38873,7 +38895,7 @@
         <v>772</v>
       </c>
       <c r="K741" t="n">
-        <v>31.42857142857143</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L741" t="n">
         <v>150.1</v>
@@ -38924,7 +38946,7 @@
         <v>772</v>
       </c>
       <c r="K742" t="n">
-        <v>17.24137931034483</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L742" t="n">
         <v>150.4</v>
@@ -38975,7 +38997,7 @@
         <v>772</v>
       </c>
       <c r="K743" t="n">
-        <v>30.76923076923077</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L743" t="n">
         <v>150.7</v>
@@ -39026,7 +39048,7 @@
         <v>773</v>
       </c>
       <c r="K744" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L744" t="n">
         <v>151.1</v>
@@ -39077,7 +39099,7 @@
         <v>773</v>
       </c>
       <c r="K745" t="n">
-        <v>44</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L745" t="n">
         <v>151.5</v>
@@ -39128,7 +39150,7 @@
         <v>774</v>
       </c>
       <c r="K746" t="n">
-        <v>46.15384615384615</v>
+        <v>100</v>
       </c>
       <c r="L746" t="n">
         <v>152.1</v>
@@ -39179,7 +39201,7 @@
         <v>775</v>
       </c>
       <c r="K747" t="n">
-        <v>46.15384615384615</v>
+        <v>100</v>
       </c>
       <c r="L747" t="n">
         <v>152.9</v>
@@ -39230,7 +39252,7 @@
         <v>775</v>
       </c>
       <c r="K748" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L748" t="n">
         <v>153.5</v>
@@ -39281,7 +39303,7 @@
         <v>775</v>
       </c>
       <c r="K749" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L749" t="n">
         <v>154.1</v>
@@ -39332,7 +39354,7 @@
         <v>775</v>
       </c>
       <c r="K750" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L750" t="n">
         <v>154.6</v>
@@ -39383,7 +39405,7 @@
         <v>777</v>
       </c>
       <c r="K751" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L751" t="n">
         <v>154.7</v>
@@ -39434,7 +39456,7 @@
         <v>778</v>
       </c>
       <c r="K752" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L752" t="n">
         <v>154.7</v>
@@ -39485,7 +39507,7 @@
         <v>780</v>
       </c>
       <c r="K753" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L753" t="n">
         <v>154.9</v>
@@ -39536,7 +39558,7 @@
         <v>780</v>
       </c>
       <c r="K754" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L754" t="n">
         <v>155</v>
@@ -39587,7 +39609,7 @@
         <v>781</v>
       </c>
       <c r="K755" t="n">
-        <v>25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L755" t="n">
         <v>155</v>
@@ -39638,7 +39660,7 @@
         <v>783</v>
       </c>
       <c r="K756" t="n">
-        <v>17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L756" t="n">
         <v>154.7</v>
@@ -39689,7 +39711,7 @@
         <v>784</v>
       </c>
       <c r="K757" t="n">
-        <v>29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L757" t="n">
         <v>154.4</v>
@@ -39740,7 +39762,7 @@
         <v>785</v>
       </c>
       <c r="K758" t="n">
-        <v>12.5</v>
+        <v>-40</v>
       </c>
       <c r="L758" t="n">
         <v>154</v>
@@ -39791,7 +39813,7 @@
         <v>785</v>
       </c>
       <c r="K759" t="n">
-        <v>12.5</v>
+        <v>-40</v>
       </c>
       <c r="L759" t="n">
         <v>153.6</v>
@@ -39842,7 +39864,7 @@
         <v>785</v>
       </c>
       <c r="K760" t="n">
-        <v>6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L760" t="n">
         <v>153.2</v>
@@ -39893,7 +39915,7 @@
         <v>786</v>
       </c>
       <c r="K761" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L761" t="n">
         <v>152.9</v>
@@ -39944,7 +39966,7 @@
         <v>787</v>
       </c>
       <c r="K762" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L762" t="n">
         <v>152.6</v>
@@ -39995,7 +40017,7 @@
         <v>788</v>
       </c>
       <c r="K763" t="n">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="L763" t="n">
         <v>152</v>
@@ -40046,7 +40068,7 @@
         <v>789</v>
       </c>
       <c r="K764" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L764" t="n">
         <v>151.5</v>
@@ -40097,7 +40119,7 @@
         <v>789</v>
       </c>
       <c r="K765" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L765" t="n">
         <v>151.1</v>
@@ -40148,7 +40170,7 @@
         <v>789</v>
       </c>
       <c r="K766" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L766" t="n">
         <v>150.9</v>
@@ -40199,7 +40221,7 @@
         <v>789</v>
       </c>
       <c r="K767" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L767" t="n">
         <v>150.6</v>
@@ -40250,7 +40272,7 @@
         <v>789</v>
       </c>
       <c r="K768" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L768" t="n">
         <v>150.4</v>
@@ -40301,7 +40323,7 @@
         <v>789</v>
       </c>
       <c r="K769" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L769" t="n">
         <v>150.2</v>
@@ -40352,7 +40374,7 @@
         <v>789</v>
       </c>
       <c r="K770" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L770" t="n">
         <v>150</v>
@@ -40403,7 +40425,7 @@
         <v>789</v>
       </c>
       <c r="K771" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L771" t="n">
         <v>149.9</v>
@@ -40454,7 +40476,7 @@
         <v>789</v>
       </c>
       <c r="K772" t="n">
-        <v>-27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L772" t="n">
         <v>149.9</v>
@@ -40505,7 +40527,7 @@
         <v>790</v>
       </c>
       <c r="K773" t="n">
-        <v>-40</v>
+        <v>100</v>
       </c>
       <c r="L773" t="n">
         <v>150.1</v>
@@ -40556,7 +40578,7 @@
         <v>791</v>
       </c>
       <c r="K774" t="n">
-        <v>-27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L774" t="n">
         <v>150.3</v>
@@ -40607,7 +40629,7 @@
         <v>793</v>
       </c>
       <c r="K775" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L775" t="n">
         <v>150.7</v>
@@ -40658,7 +40680,7 @@
         <v>794</v>
       </c>
       <c r="K776" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L776" t="n">
         <v>151.2</v>
@@ -40709,7 +40731,7 @@
         <v>794</v>
       </c>
       <c r="K777" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L777" t="n">
         <v>151.7</v>
@@ -40760,7 +40782,7 @@
         <v>796</v>
       </c>
       <c r="K778" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L778" t="n">
         <v>152</v>
@@ -40811,7 +40833,7 @@
         <v>796</v>
       </c>
       <c r="K779" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L779" t="n">
         <v>152.3</v>
@@ -40862,7 +40884,7 @@
         <v>797</v>
       </c>
       <c r="K780" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L780" t="n">
         <v>152.7</v>
@@ -40913,7 +40935,7 @@
         <v>797</v>
       </c>
       <c r="K781" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L781" t="n">
         <v>153.1</v>
@@ -40964,7 +40986,7 @@
         <v>799</v>
       </c>
       <c r="K782" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L782" t="n">
         <v>153.7</v>
@@ -41015,7 +41037,7 @@
         <v>802</v>
       </c>
       <c r="K783" t="n">
-        <v>71.42857142857143</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L783" t="n">
         <v>154.5</v>
@@ -41066,7 +41088,7 @@
         <v>802</v>
       </c>
       <c r="K784" t="n">
-        <v>69.23076923076923</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L784" t="n">
         <v>155.2</v>
@@ -41117,7 +41139,7 @@
         <v>803</v>
       </c>
       <c r="K785" t="n">
-        <v>71.42857142857143</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L785" t="n">
         <v>155.8</v>
@@ -41168,7 +41190,7 @@
         <v>805</v>
       </c>
       <c r="K786" t="n">
-        <v>75</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L786" t="n">
         <v>156.5</v>
@@ -41219,7 +41241,7 @@
         <v>813</v>
       </c>
       <c r="K787" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L787" t="n">
         <v>158</v>
@@ -41270,7 +41292,7 @@
         <v>814</v>
       </c>
       <c r="K788" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L788" t="n">
         <v>159.8</v>
@@ -41321,7 +41343,7 @@
         <v>815</v>
       </c>
       <c r="K789" t="n">
-        <v>84.61538461538461</v>
+        <v>100</v>
       </c>
       <c r="L789" t="n">
         <v>161.7</v>
@@ -41372,7 +41394,7 @@
         <v>816</v>
       </c>
       <c r="K790" t="n">
-        <v>85.18518518518519</v>
+        <v>100</v>
       </c>
       <c r="L790" t="n">
         <v>163.6</v>
@@ -41423,7 +41445,7 @@
         <v>819</v>
       </c>
       <c r="K791" t="n">
-        <v>66.66666666666666</v>
+        <v>70</v>
       </c>
       <c r="L791" t="n">
         <v>165.2</v>
@@ -41474,7 +41496,7 @@
         <v>823</v>
       </c>
       <c r="K792" t="n">
-        <v>47.05882352941176</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L792" t="n">
         <v>166.2</v>
@@ -41525,7 +41547,7 @@
         <v>824</v>
       </c>
       <c r="K793" t="n">
-        <v>47.05882352941176</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L793" t="n">
         <v>167</v>
@@ -41576,7 +41598,7 @@
         <v>825</v>
       </c>
       <c r="K794" t="n">
-        <v>47.05882352941176</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L794" t="n">
         <v>167.9</v>
@@ -41627,7 +41649,7 @@
         <v>826</v>
       </c>
       <c r="K795" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L795" t="n">
         <v>168.8</v>
@@ -41678,7 +41700,7 @@
         <v>831</v>
       </c>
       <c r="K796" t="n">
-        <v>24.32432432432433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L796" t="n">
         <v>169</v>
@@ -41729,7 +41751,7 @@
         <v>837</v>
       </c>
       <c r="K797" t="n">
-        <v>34.88372093023256</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L797" t="n">
         <v>169</v>
@@ -41780,7 +41802,7 @@
         <v>837</v>
       </c>
       <c r="K798" t="n">
-        <v>41.46341463414634</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L798" t="n">
         <v>168.9</v>
@@ -41831,7 +41853,7 @@
         <v>838</v>
       </c>
       <c r="K799" t="n">
-        <v>42.85714285714285</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L799" t="n">
         <v>168.8</v>
@@ -41882,7 +41904,7 @@
         <v>840</v>
       </c>
       <c r="K800" t="n">
-        <v>44.18604651162791</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L800" t="n">
         <v>168.8</v>
@@ -41933,7 +41955,7 @@
         <v>841</v>
       </c>
       <c r="K801" t="n">
-        <v>45.45454545454545</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L801" t="n">
         <v>169.2</v>
@@ -41984,7 +42006,7 @@
         <v>843</v>
       </c>
       <c r="K802" t="n">
-        <v>45.45454545454545</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L802" t="n">
         <v>170.2</v>
@@ -42035,7 +42057,7 @@
         <v>846</v>
       </c>
       <c r="K803" t="n">
-        <v>31.81818181818182</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L803" t="n">
         <v>170.8</v>
@@ -42086,7 +42108,7 @@
         <v>849</v>
       </c>
       <c r="K804" t="n">
-        <v>36.17021276595745</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L804" t="n">
         <v>171.6</v>
@@ -42137,7 +42159,7 @@
         <v>852</v>
       </c>
       <c r="K805" t="n">
-        <v>26.53061224489796</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L805" t="n">
         <v>172</v>
@@ -42239,7 +42261,7 @@
         <v>854</v>
       </c>
       <c r="K807" t="n">
-        <v>7.317073170731707</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L807" t="n">
         <v>173.3</v>
@@ -42341,7 +42363,7 @@
         <v>857</v>
       </c>
       <c r="K809" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L809" t="n">
         <v>173.5</v>
@@ -42392,7 +42414,7 @@
         <v>857</v>
       </c>
       <c r="K810" t="n">
-        <v>-2.439024390243902</v>
+        <v>-12.5</v>
       </c>
       <c r="L810" t="n">
         <v>173.4</v>
@@ -42443,7 +42465,7 @@
         <v>857</v>
       </c>
       <c r="K811" t="n">
-        <v>5.263157894736842</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L811" t="n">
         <v>173.2</v>
@@ -42494,7 +42516,7 @@
         <v>858</v>
       </c>
       <c r="K812" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L812" t="n">
         <v>172.9</v>
@@ -42545,7 +42567,7 @@
         <v>858</v>
       </c>
       <c r="K813" t="n">
-        <v>17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L813" t="n">
         <v>172.9</v>
@@ -42596,7 +42618,7 @@
         <v>860</v>
       </c>
       <c r="K814" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L814" t="n">
         <v>172.8</v>
@@ -42653,7 +42675,7 @@
         <v>861</v>
       </c>
       <c r="K815" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L815" t="n">
         <v>173.1</v>
@@ -42710,7 +42732,7 @@
         <v>865</v>
       </c>
       <c r="K816" t="n">
-        <v>23.52941176470588</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L816" t="n">
         <v>172.9</v>
@@ -42767,7 +42789,7 @@
         <v>868</v>
       </c>
       <c r="K817" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L817" t="n">
         <v>173.1</v>
@@ -42824,7 +42846,7 @@
         <v>873</v>
       </c>
       <c r="K818" t="n">
-        <v>27.77777777777778</v>
+        <v>50</v>
       </c>
       <c r="L818" t="n">
         <v>174</v>
@@ -42883,7 +42905,7 @@
         <v>873</v>
       </c>
       <c r="K819" t="n">
-        <v>25.71428571428571</v>
+        <v>50</v>
       </c>
       <c r="L819" t="n">
         <v>174.8</v>
@@ -42942,7 +42964,7 @@
         <v>877</v>
       </c>
       <c r="K820" t="n">
-        <v>8.108108108108109</v>
+        <v>20</v>
       </c>
       <c r="L820" t="n">
         <v>175.2</v>
@@ -43001,7 +43023,7 @@
         <v>881</v>
       </c>
       <c r="K821" t="n">
-        <v>15</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L821" t="n">
         <v>176</v>
@@ -43060,7 +43082,7 @@
         <v>882</v>
       </c>
       <c r="K822" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L822" t="n">
         <v>176.6</v>
@@ -43119,7 +43141,7 @@
         <v>884</v>
       </c>
       <c r="K823" t="n">
-        <v>21.05263157894737</v>
+        <v>25</v>
       </c>
       <c r="L823" t="n">
         <v>177.4</v>
@@ -43178,7 +43200,7 @@
         <v>886</v>
       </c>
       <c r="K824" t="n">
-        <v>18.91891891891892</v>
+        <v>28</v>
       </c>
       <c r="L824" t="n">
         <v>178.2</v>
@@ -43237,7 +43259,7 @@
         <v>893</v>
       </c>
       <c r="K825" t="n">
-        <v>41.46341463414634</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L825" t="n">
         <v>179.6</v>
@@ -43296,7 +43318,7 @@
         <v>894</v>
       </c>
       <c r="K826" t="n">
-        <v>36.58536585365854</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L826" t="n">
         <v>181.3</v>
@@ -43355,7 +43377,7 @@
         <v>895</v>
       </c>
       <c r="K827" t="n">
-        <v>41.46341463414634</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L827" t="n">
         <v>182.8</v>
@@ -43414,7 +43436,7 @@
         <v>896</v>
       </c>
       <c r="K828" t="n">
-        <v>50</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L828" t="n">
         <v>183.9</v>
@@ -43471,7 +43493,7 @@
         <v>902</v>
       </c>
       <c r="K829" t="n">
-        <v>28.88888888888889</v>
+        <v>36</v>
       </c>
       <c r="L829" t="n">
         <v>184.4</v>
@@ -43532,7 +43554,7 @@
         <v>903</v>
       </c>
       <c r="K830" t="n">
-        <v>30.43478260869566</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L830" t="n">
         <v>185.4</v>
@@ -43591,7 +43613,7 @@
         <v>904</v>
       </c>
       <c r="K831" t="n">
-        <v>27.65957446808511</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L831" t="n">
         <v>185.9</v>
@@ -43654,7 +43676,7 @@
         <v>906</v>
       </c>
       <c r="K832" t="n">
-        <v>29.16666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L832" t="n">
         <v>186.7</v>
@@ -43717,7 +43739,7 @@
         <v>910</v>
       </c>
       <c r="K833" t="n">
-        <v>19.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L833" t="n">
         <v>186.9</v>
@@ -43778,7 +43800,7 @@
         <v>914</v>
       </c>
       <c r="K834" t="n">
-        <v>22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L834" t="n">
         <v>187.3</v>
@@ -43837,7 +43859,7 @@
         <v>918</v>
       </c>
       <c r="K835" t="n">
-        <v>12.28070175438596</v>
+        <v>-25</v>
       </c>
       <c r="L835" t="n">
         <v>186.6</v>
@@ -43900,7 +43922,7 @@
         <v>918</v>
       </c>
       <c r="K836" t="n">
-        <v>20.75471698113208</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L836" t="n">
         <v>186</v>
@@ -43961,7 +43983,7 @@
         <v>919</v>
       </c>
       <c r="K837" t="n">
-        <v>17.64705882352941</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L837" t="n">
         <v>185.4</v>
@@ -44022,7 +44044,7 @@
         <v>921</v>
       </c>
       <c r="K838" t="n">
-        <v>4.166666666666666</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L838" t="n">
         <v>184.5</v>
@@ -44083,7 +44105,7 @@
         <v>921</v>
       </c>
       <c r="K839" t="n">
-        <v>4.166666666666666</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L839" t="n">
         <v>184.2</v>
@@ -44144,7 +44166,7 @@
         <v>922</v>
       </c>
       <c r="K840" t="n">
-        <v>11.11111111111111</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L840" t="n">
         <v>183.7</v>
@@ -44205,7 +44227,7 @@
         <v>922</v>
       </c>
       <c r="K841" t="n">
-        <v>2.439024390243902</v>
+        <v>-37.5</v>
       </c>
       <c r="L841" t="n">
         <v>183.3</v>
@@ -44264,7 +44286,7 @@
         <v>923</v>
       </c>
       <c r="K842" t="n">
-        <v>2.439024390243902</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L842" t="n">
         <v>182.6</v>
@@ -44325,7 +44347,7 @@
         <v>923</v>
       </c>
       <c r="K843" t="n">
-        <v>-2.564102564102564</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L843" t="n">
         <v>182.3</v>
@@ -44384,7 +44406,7 @@
         <v>925</v>
       </c>
       <c r="K844" t="n">
-        <v>-2.564102564102564</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L844" t="n">
         <v>181.8</v>
@@ -44447,7 +44469,7 @@
         <v>925</v>
       </c>
       <c r="K845" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L845" t="n">
         <v>181.7</v>
@@ -44510,7 +44532,7 @@
         <v>926</v>
       </c>
       <c r="K846" t="n">
-        <v>-18.75</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L846" t="n">
         <v>181.7</v>
@@ -44573,7 +44595,7 @@
         <v>926</v>
       </c>
       <c r="K847" t="n">
-        <v>-22.58064516129032</v>
+        <v>20</v>
       </c>
       <c r="L847" t="n">
         <v>181.6</v>
@@ -44632,7 +44654,7 @@
         <v>927</v>
       </c>
       <c r="K848" t="n">
-        <v>-29.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="L848" t="n">
         <v>181.6</v>
@@ -44689,7 +44711,7 @@
         <v>928</v>
       </c>
       <c r="K849" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L849" t="n">
         <v>181.7</v>
@@ -44746,7 +44768,7 @@
         <v>929</v>
       </c>
       <c r="K850" t="n">
-        <v>-15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L850" t="n">
         <v>181.8</v>
@@ -44803,7 +44825,7 @@
         <v>930</v>
       </c>
       <c r="K851" t="n">
-        <v>-15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L851" t="n">
         <v>181.8</v>
@@ -44858,7 +44880,7 @@
         <v>931</v>
       </c>
       <c r="K852" t="n">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="L852" t="n">
         <v>181.8</v>
@@ -44915,7 +44937,7 @@
         <v>933</v>
       </c>
       <c r="K853" t="n">
-        <v>-21.73913043478261</v>
+        <v>-50</v>
       </c>
       <c r="L853" t="n">
         <v>181.6</v>
@@ -44972,7 +44994,7 @@
         <v>934</v>
       </c>
       <c r="K854" t="n">
-        <v>-50</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L854" t="n">
         <v>181.1</v>
@@ -45029,7 +45051,7 @@
         <v>936</v>
       </c>
       <c r="K855" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L855" t="n">
         <v>180.8</v>
@@ -45086,7 +45108,7 @@
         <v>939</v>
       </c>
       <c r="K856" t="n">
-        <v>-4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L856" t="n">
         <v>180.7</v>
@@ -45143,7 +45165,7 @@
         <v>942</v>
       </c>
       <c r="K857" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L857" t="n">
         <v>180.3</v>
@@ -45200,7 +45222,7 @@
         <v>944</v>
       </c>
       <c r="K858" t="n">
-        <v>-4.347826086956522</v>
+        <v>-12.5</v>
       </c>
       <c r="L858" t="n">
         <v>180.2</v>
@@ -45314,7 +45336,7 @@
         <v>947</v>
       </c>
       <c r="K860" t="n">
-        <v>12</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L860" t="n">
         <v>180.3</v>
@@ -45371,7 +45393,7 @@
         <v>949</v>
       </c>
       <c r="K861" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L861" t="n">
         <v>180.8</v>
@@ -45428,7 +45450,7 @@
         <v>955</v>
       </c>
       <c r="K862" t="n">
-        <v>37.5</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L862" t="n">
         <v>182</v>
@@ -45485,7 +45507,7 @@
         <v>964</v>
       </c>
       <c r="K863" t="n">
-        <v>51.21951219512195</v>
+        <v>80</v>
       </c>
       <c r="L863" t="n">
         <v>184.3</v>
@@ -45536,7 +45558,7 @@
         <v>965</v>
       </c>
       <c r="K864" t="n">
-        <v>45</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L864" t="n">
         <v>186.6</v>
@@ -45587,7 +45609,7 @@
         <v>966</v>
       </c>
       <c r="K865" t="n">
-        <v>46.34146341463415</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L865" t="n">
         <v>188.8</v>
@@ -45638,7 +45660,7 @@
         <v>968</v>
       </c>
       <c r="K866" t="n">
-        <v>38.09523809523809</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L866" t="n">
         <v>190.5</v>
@@ -45689,7 +45711,7 @@
         <v>972</v>
       </c>
       <c r="K867" t="n">
-        <v>43.47826086956522</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L867" t="n">
         <v>192.9</v>
@@ -45740,7 +45762,7 @@
         <v>974</v>
       </c>
       <c r="K868" t="n">
-        <v>48.93617021276596</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L868" t="n">
         <v>195.3</v>
@@ -45791,7 +45813,7 @@
         <v>980</v>
       </c>
       <c r="K869" t="n">
-        <v>30.76923076923077</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L869" t="n">
         <v>197</v>
@@ -45842,7 +45864,7 @@
         <v>982</v>
       </c>
       <c r="K870" t="n">
-        <v>35.84905660377358</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L870" t="n">
         <v>198.7</v>
@@ -45893,7 +45915,7 @@
         <v>984</v>
       </c>
       <c r="K871" t="n">
-        <v>40.74074074074074</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L871" t="n">
         <v>200.4</v>
@@ -45944,7 +45966,7 @@
         <v>995</v>
       </c>
       <c r="K872" t="n">
-        <v>53.125</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L872" t="n">
         <v>202.6</v>
@@ -45995,7 +46017,7 @@
         <v>999</v>
       </c>
       <c r="K873" t="n">
-        <v>48.48484848484848</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L873" t="n">
         <v>203.5</v>
@@ -46046,7 +46068,7 @@
         <v>1001</v>
       </c>
       <c r="K874" t="n">
-        <v>52.23880597014925</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L874" t="n">
         <v>204.7</v>
@@ -46097,7 +46119,7 @@
         <v>1006</v>
       </c>
       <c r="K875" t="n">
-        <v>54.28571428571428</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L875" t="n">
         <v>206.3</v>
@@ -46148,7 +46170,7 @@
         <v>1007</v>
       </c>
       <c r="K876" t="n">
-        <v>52.94117647058824</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L876" t="n">
         <v>208.2</v>
@@ -46199,7 +46221,7 @@
         <v>1008</v>
       </c>
       <c r="K877" t="n">
-        <v>57.57575757575758</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L877" t="n">
         <v>209.6</v>
@@ -46250,7 +46272,7 @@
         <v>1011</v>
       </c>
       <c r="K878" t="n">
-        <v>58.2089552238806</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L878" t="n">
         <v>211.1</v>
@@ -46301,7 +46323,7 @@
         <v>1014</v>
       </c>
       <c r="K879" t="n">
-        <v>50.72463768115942</v>
+        <v>50</v>
       </c>
       <c r="L879" t="n">
         <v>212.9</v>
@@ -46352,7 +46374,7 @@
         <v>1019</v>
       </c>
       <c r="K880" t="n">
-        <v>52.77777777777778</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L880" t="n">
         <v>215</v>
@@ -46403,7 +46425,7 @@
         <v>1019</v>
       </c>
       <c r="K881" t="n">
-        <v>51.42857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L881" t="n">
         <v>216.9</v>
@@ -46454,7 +46476,7 @@
         <v>1023</v>
       </c>
       <c r="K882" t="n">
-        <v>38.23529411764706</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L882" t="n">
         <v>217.3</v>
@@ -46505,7 +46527,7 @@
         <v>1027</v>
       </c>
       <c r="K883" t="n">
-        <v>33.33333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L883" t="n">
         <v>218.5</v>
@@ -46556,7 +46578,7 @@
         <v>1031</v>
       </c>
       <c r="K884" t="n">
-        <v>39.39393939393939</v>
+        <v>36</v>
       </c>
       <c r="L884" t="n">
         <v>219.9</v>
@@ -46607,7 +46629,7 @@
         <v>1031</v>
       </c>
       <c r="K885" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L885" t="n">
         <v>220.8</v>
@@ -46658,7 +46680,7 @@
         <v>1034</v>
       </c>
       <c r="K886" t="n">
-        <v>45.45454545454545</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L886" t="n">
         <v>221.9</v>
@@ -46709,7 +46731,7 @@
         <v>1035</v>
       </c>
       <c r="K887" t="n">
-        <v>42.85714285714285</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L887" t="n">
         <v>223.2</v>
@@ -46760,7 +46782,7 @@
         <v>1036</v>
       </c>
       <c r="K888" t="n">
-        <v>41.93548387096774</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L888" t="n">
         <v>224.3</v>
@@ -46811,7 +46833,7 @@
         <v>1037</v>
       </c>
       <c r="K889" t="n">
-        <v>57.89473684210527</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L889" t="n">
         <v>225.8</v>
@@ -46862,7 +46884,7 @@
         <v>1039</v>
       </c>
       <c r="K890" t="n">
-        <v>57.89473684210527</v>
+        <v>60</v>
       </c>
       <c r="L890" t="n">
         <v>227</v>
@@ -46913,7 +46935,7 @@
         <v>1046</v>
       </c>
       <c r="K891" t="n">
-        <v>38.70967741935484</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L891" t="n">
         <v>227.5</v>
@@ -46964,7 +46986,7 @@
         <v>1055</v>
       </c>
       <c r="K892" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L892" t="n">
         <v>227.5</v>
@@ -47015,7 +47037,7 @@
         <v>1055</v>
       </c>
       <c r="K893" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L893" t="n">
         <v>227.1</v>
@@ -47066,7 +47088,7 @@
         <v>1060</v>
       </c>
       <c r="K894" t="n">
-        <v>18.64406779661017</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L894" t="n">
         <v>226.8</v>
@@ -47117,7 +47139,7 @@
         <v>1062</v>
       </c>
       <c r="K895" t="n">
-        <v>7.142857142857142</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L895" t="n">
         <v>226.3</v>
@@ -47168,7 +47190,7 @@
         <v>1064</v>
       </c>
       <c r="K896" t="n">
-        <v>1.754385964912281</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L896" t="n">
         <v>225.3</v>
@@ -47219,7 +47241,7 @@
         <v>1069</v>
       </c>
       <c r="K897" t="n">
-        <v>-4.918032786885246</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L897" t="n">
         <v>223.7</v>
@@ -47270,7 +47292,7 @@
         <v>1071</v>
       </c>
       <c r="K898" t="n">
-        <v>-13.33333333333333</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L898" t="n">
         <v>221.8</v>
@@ -47321,7 +47343,7 @@
         <v>1075</v>
       </c>
       <c r="K899" t="n">
-        <v>-14.75409836065574</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L899" t="n">
         <v>219.4</v>
@@ -47372,7 +47394,7 @@
         <v>1078</v>
       </c>
       <c r="K900" t="n">
-        <v>-28.8135593220339</v>
+        <v>-68.75</v>
       </c>
       <c r="L900" t="n">
         <v>216.5</v>
@@ -47423,7 +47445,7 @@
         <v>1078</v>
       </c>
       <c r="K901" t="n">
-        <v>-28.8135593220339</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L901" t="n">
         <v>214.3</v>
@@ -47474,7 +47496,7 @@
         <v>1079</v>
       </c>
       <c r="K902" t="n">
-        <v>-25</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L902" t="n">
         <v>212.9</v>
@@ -47525,7 +47547,7 @@
         <v>1084</v>
       </c>
       <c r="K903" t="n">
-        <v>-40.35087719298245</v>
+        <v>-100</v>
       </c>
       <c r="L903" t="n">
         <v>211</v>
@@ -47576,7 +47598,7 @@
         <v>1086</v>
       </c>
       <c r="K904" t="n">
-        <v>-52.72727272727272</v>
+        <v>-100</v>
       </c>
       <c r="L904" t="n">
         <v>208.4</v>
@@ -47627,7 +47649,7 @@
         <v>1090</v>
       </c>
       <c r="K905" t="n">
-        <v>-55.93220338983051</v>
+        <v>-100</v>
       </c>
       <c r="L905" t="n">
         <v>205.6</v>
@@ -47678,7 +47700,7 @@
         <v>1094</v>
       </c>
       <c r="K906" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L906" t="n">
         <v>202.6</v>
@@ -47729,7 +47751,7 @@
         <v>1095</v>
       </c>
       <c r="K907" t="n">
-        <v>-70</v>
+        <v>-100</v>
       </c>
       <c r="L907" t="n">
         <v>200</v>
@@ -47780,7 +47802,7 @@
         <v>1099</v>
       </c>
       <c r="K908" t="n">
-        <v>-61.90476190476191</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L908" t="n">
         <v>198</v>
@@ -47831,7 +47853,7 @@
         <v>1099</v>
       </c>
       <c r="K909" t="n">
-        <v>-64.51612903225806</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L909" t="n">
         <v>196.4</v>
@@ -47882,7 +47904,7 @@
         <v>1100</v>
       </c>
       <c r="K910" t="n">
-        <v>-67.21311475409836</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L910" t="n">
         <v>195.2</v>
@@ -47933,7 +47955,7 @@
         <v>1101</v>
       </c>
       <c r="K911" t="n">
-        <v>-63.63636363636363</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L911" t="n">
         <v>193.9</v>
@@ -47984,7 +48006,7 @@
         <v>1101</v>
       </c>
       <c r="K912" t="n">
-        <v>-56.52173913043478</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L912" t="n">
         <v>192.7</v>
@@ -48035,7 +48057,7 @@
         <v>1101</v>
       </c>
       <c r="K913" t="n">
-        <v>-56.52173913043478</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L913" t="n">
         <v>192</v>
@@ -48086,7 +48108,7 @@
         <v>1103</v>
       </c>
       <c r="K914" t="n">
-        <v>-67.44186046511628</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L914" t="n">
         <v>191.7</v>
@@ -48137,7 +48159,7 @@
         <v>1107</v>
       </c>
       <c r="K915" t="n">
-        <v>-51.11111111111111</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L915" t="n">
         <v>192.2</v>
@@ -48188,7 +48210,7 @@
         <v>1108</v>
       </c>
       <c r="K916" t="n">
-        <v>-50</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L916" t="n">
         <v>193</v>
@@ -48239,7 +48261,7 @@
         <v>1111</v>
       </c>
       <c r="K917" t="n">
-        <v>-47.61904761904761</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L917" t="n">
         <v>193.6</v>
@@ -48290,7 +48312,7 @@
         <v>1113</v>
       </c>
       <c r="K918" t="n">
-        <v>-38.09523809523809</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L918" t="n">
         <v>194</v>
@@ -48341,7 +48363,7 @@
         <v>1113</v>
       </c>
       <c r="K919" t="n">
-        <v>-31.57894736842105</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L919" t="n">
         <v>194.4</v>
@@ -48392,7 +48414,7 @@
         <v>1114</v>
       </c>
       <c r="K920" t="n">
-        <v>-27.77777777777778</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L920" t="n">
         <v>194.6</v>
@@ -48443,7 +48465,7 @@
         <v>1114</v>
       </c>
       <c r="K921" t="n">
-        <v>-27.77777777777778</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L921" t="n">
         <v>194.9</v>
@@ -48494,7 +48516,7 @@
         <v>1117</v>
       </c>
       <c r="K922" t="n">
-        <v>-15.78947368421053</v>
+        <v>37.5</v>
       </c>
       <c r="L922" t="n">
         <v>195.5</v>
@@ -48545,7 +48567,7 @@
         <v>1120</v>
       </c>
       <c r="K923" t="n">
-        <v>5.555555555555555</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L923" t="n">
         <v>196.4</v>
@@ -48596,7 +48618,7 @@
         <v>1123</v>
       </c>
       <c r="K924" t="n">
-        <v>18.91891891891892</v>
+        <v>37.5</v>
       </c>
       <c r="L924" t="n">
         <v>197.4</v>
@@ -48647,7 +48669,7 @@
         <v>1123</v>
       </c>
       <c r="K925" t="n">
-        <v>33.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L925" t="n">
         <v>198</v>
@@ -48698,7 +48720,7 @@
         <v>1129</v>
       </c>
       <c r="K926" t="n">
-        <v>25.71428571428571</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L926" t="n">
         <v>198.1</v>
@@ -48749,7 +48771,7 @@
         <v>1130</v>
       </c>
       <c r="K927" t="n">
-        <v>25.71428571428571</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L927" t="n">
         <v>198.4</v>
@@ -48800,7 +48822,7 @@
         <v>1131</v>
       </c>
       <c r="K928" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L928" t="n">
         <v>198.4</v>
@@ -48851,7 +48873,7 @@
         <v>1131</v>
       </c>
       <c r="K929" t="n">
-        <v>12.5</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L929" t="n">
         <v>198.4</v>
@@ -48902,7 +48924,7 @@
         <v>1132</v>
       </c>
       <c r="K930" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L930" t="n">
         <v>198.6</v>
@@ -48953,7 +48975,7 @@
         <v>1134</v>
       </c>
       <c r="K931" t="n">
-        <v>9.090909090909092</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L931" t="n">
         <v>198.6</v>
@@ -49004,7 +49026,7 @@
         <v>1137</v>
       </c>
       <c r="K932" t="n">
-        <v>0</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L932" t="n">
         <v>198</v>
@@ -49055,7 +49077,7 @@
         <v>1144</v>
       </c>
       <c r="K933" t="n">
-        <v>-16.27906976744186</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L933" t="n">
         <v>196.4</v>
@@ -49106,7 +49128,7 @@
         <v>1145</v>
       </c>
       <c r="K934" t="n">
-        <v>-19.04761904761905</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L934" t="n">
         <v>194.6</v>
@@ -49157,7 +49179,7 @@
         <v>1145</v>
       </c>
       <c r="K935" t="n">
-        <v>-31.57894736842105</v>
+        <v>-75</v>
       </c>
       <c r="L935" t="n">
         <v>192.8</v>
@@ -49208,7 +49230,7 @@
         <v>1146</v>
       </c>
       <c r="K936" t="n">
-        <v>-26.31578947368421</v>
+        <v>-62.5</v>
       </c>
       <c r="L936" t="n">
         <v>191.7</v>
@@ -49259,7 +49281,7 @@
         <v>1147</v>
       </c>
       <c r="K937" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L937" t="n">
         <v>190.8</v>
@@ -49310,7 +49332,7 @@
         <v>1151</v>
       </c>
       <c r="K938" t="n">
-        <v>-31.57894736842105</v>
+        <v>-60</v>
       </c>
       <c r="L938" t="n">
         <v>189.6</v>
@@ -49361,7 +49383,7 @@
         <v>1155</v>
       </c>
       <c r="K939" t="n">
-        <v>-38.09523809523809</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L939" t="n">
         <v>188</v>
@@ -49412,7 +49434,7 @@
         <v>1158</v>
       </c>
       <c r="K940" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L940" t="n">
         <v>186.6</v>
@@ -49463,7 +49485,7 @@
         <v>1159</v>
       </c>
       <c r="K941" t="n">
-        <v>-24.44444444444444</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L941" t="n">
         <v>185.5</v>
@@ -49514,7 +49536,7 @@
         <v>1162</v>
       </c>
       <c r="K942" t="n">
-        <v>-37.77777777777778</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L942" t="n">
         <v>184.4</v>
@@ -49565,7 +49587,7 @@
         <v>1165</v>
       </c>
       <c r="K943" t="n">
-        <v>-51.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L943" t="n">
         <v>183.7</v>
@@ -49616,7 +49638,7 @@
         <v>1168</v>
       </c>
       <c r="K944" t="n">
-        <v>-64.44444444444444</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L944" t="n">
         <v>182.6</v>
@@ -49667,7 +49689,7 @@
         <v>1174</v>
       </c>
       <c r="K945" t="n">
-        <v>-45.09803921568628</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L945" t="n">
         <v>182.1</v>
@@ -49718,7 +49740,7 @@
         <v>1175</v>
       </c>
       <c r="K946" t="n">
-        <v>-39.1304347826087</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L946" t="n">
         <v>181.4</v>
@@ -49769,7 +49791,7 @@
         <v>1176</v>
       </c>
       <c r="K947" t="n">
-        <v>-34.78260869565217</v>
+        <v>-12</v>
       </c>
       <c r="L947" t="n">
         <v>180.7</v>
@@ -49820,7 +49842,7 @@
         <v>1178</v>
       </c>
       <c r="K948" t="n">
-        <v>-36.17021276595745</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L948" t="n">
         <v>180.2</v>
@@ -49871,7 +49893,7 @@
         <v>1180</v>
       </c>
       <c r="K949" t="n">
-        <v>-30.61224489795918</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L949" t="n">
         <v>180.3</v>
@@ -49922,7 +49944,7 @@
         <v>1181</v>
       </c>
       <c r="K950" t="n">
-        <v>-30.61224489795918</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L950" t="n">
         <v>180.2</v>
@@ -49973,7 +49995,7 @@
         <v>1183</v>
       </c>
       <c r="K951" t="n">
-        <v>-30.61224489795918</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L951" t="n">
         <v>179.8</v>
@@ -50024,7 +50046,7 @@
         <v>1185</v>
       </c>
       <c r="K952" t="n">
-        <v>-29.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="L952" t="n">
         <v>179.5</v>
@@ -50075,7 +50097,7 @@
         <v>1187</v>
       </c>
       <c r="K953" t="n">
-        <v>-11.62790697674419</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L953" t="n">
         <v>179.7</v>
@@ -50126,7 +50148,7 @@
         <v>1188</v>
       </c>
       <c r="K954" t="n">
-        <v>-11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L954" t="n">
         <v>180.3</v>
@@ -50177,7 +50199,7 @@
         <v>1191</v>
       </c>
       <c r="K955" t="n">
-        <v>-4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L955" t="n">
         <v>180.6</v>
@@ -50228,7 +50250,7 @@
         <v>1192</v>
       </c>
       <c r="K956" t="n">
-        <v>-8.695652173913043</v>
+        <v>12.5</v>
       </c>
       <c r="L956" t="n">
         <v>180.9</v>
@@ -50279,7 +50301,7 @@
         <v>1192</v>
       </c>
       <c r="K957" t="n">
-        <v>-11.11111111111111</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L957" t="n">
         <v>181.1</v>
@@ -50330,7 +50352,7 @@
         <v>1193</v>
       </c>
       <c r="K958" t="n">
-        <v>-4.761904761904762</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L958" t="n">
         <v>181.4</v>
@@ -50381,7 +50403,7 @@
         <v>1195</v>
       </c>
       <c r="K959" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L959" t="n">
         <v>181.3</v>
@@ -50432,7 +50454,7 @@
         <v>1197</v>
       </c>
       <c r="K960" t="n">
-        <v>-12.82051282051282</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L960" t="n">
         <v>180.9</v>
@@ -50483,7 +50505,7 @@
         <v>1200</v>
       </c>
       <c r="K961" t="n">
-        <v>-7.317073170731707</v>
+        <v>20</v>
       </c>
       <c r="L961" t="n">
         <v>181</v>
@@ -50534,7 +50556,7 @@
         <v>1201</v>
       </c>
       <c r="K962" t="n">
-        <v>2.564102564102564</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L962" t="n">
         <v>181.4</v>
@@ -50585,7 +50607,7 @@
         <v>1203</v>
       </c>
       <c r="K963" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L963" t="n">
         <v>181.8</v>
@@ -50636,7 +50658,7 @@
         <v>1203</v>
       </c>
       <c r="K964" t="n">
-        <v>25.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L964" t="n">
         <v>182.1</v>
@@ -50687,7 +50709,7 @@
         <v>1204</v>
       </c>
       <c r="K965" t="n">
-        <v>13.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L965" t="n">
         <v>182.2</v>
@@ -50738,7 +50760,7 @@
         <v>1204</v>
       </c>
       <c r="K966" t="n">
-        <v>17.24137931034483</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L966" t="n">
         <v>182.4</v>
@@ -50789,7 +50811,7 @@
         <v>1205</v>
       </c>
       <c r="K967" t="n">
-        <v>17.24137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L967" t="n">
         <v>182.7</v>
@@ -50840,7 +50862,7 @@
         <v>1206</v>
       </c>
       <c r="K968" t="n">
-        <v>28.57142857142857</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L968" t="n">
         <v>183.2</v>
@@ -50891,7 +50913,7 @@
         <v>1206</v>
       </c>
       <c r="K969" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L969" t="n">
         <v>183.9</v>
@@ -50942,7 +50964,7 @@
         <v>1207</v>
       </c>
       <c r="K970" t="n">
-        <v>15.38461538461539</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L970" t="n">
         <v>184.7</v>
@@ -50993,7 +51015,7 @@
         <v>1208</v>
       </c>
       <c r="K971" t="n">
-        <v>28</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L971" t="n">
         <v>185.3</v>
@@ -51044,7 +51066,7 @@
         <v>1210</v>
       </c>
       <c r="K972" t="n">
-        <v>44</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L972" t="n">
         <v>186</v>
@@ -51095,7 +51117,7 @@
         <v>1212</v>
       </c>
       <c r="K973" t="n">
-        <v>44</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L973" t="n">
         <v>186.7</v>
@@ -51146,7 +51168,7 @@
         <v>1214</v>
       </c>
       <c r="K974" t="n">
-        <v>30.76923076923077</v>
+        <v>40</v>
       </c>
       <c r="L974" t="n">
         <v>187.2</v>
@@ -51197,7 +51219,7 @@
         <v>1216</v>
       </c>
       <c r="K975" t="n">
-        <v>12</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L975" t="n">
         <v>187.4</v>
@@ -51299,7 +51321,7 @@
         <v>1220</v>
       </c>
       <c r="K977" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L977" t="n">
         <v>187.9</v>
@@ -51350,7 +51372,7 @@
         <v>1220</v>
       </c>
       <c r="K978" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L978" t="n">
         <v>187.9</v>
@@ -51401,7 +51423,7 @@
         <v>1224</v>
       </c>
       <c r="K979" t="n">
-        <v>10.3448275862069</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L979" t="n">
         <v>187.5</v>
@@ -51452,7 +51474,7 @@
         <v>1225</v>
       </c>
       <c r="K980" t="n">
-        <v>21.42857142857143</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L980" t="n">
         <v>187.3</v>
@@ -51503,7 +51525,7 @@
         <v>1225</v>
       </c>
       <c r="K981" t="n">
-        <v>12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L981" t="n">
         <v>187</v>
@@ -51554,7 +51576,7 @@
         <v>1225</v>
       </c>
       <c r="K982" t="n">
-        <v>8.333333333333332</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L982" t="n">
         <v>186.5</v>
@@ -51605,7 +51627,7 @@
         <v>1225</v>
       </c>
       <c r="K983" t="n">
-        <v>0</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L983" t="n">
         <v>185.8</v>
@@ -51656,7 +51678,7 @@
         <v>1228</v>
       </c>
       <c r="K984" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L984" t="n">
         <v>185.6</v>
@@ -51707,7 +51729,7 @@
         <v>1230</v>
       </c>
       <c r="K985" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L985" t="n">
         <v>185.4</v>
@@ -51758,7 +51780,7 @@
         <v>1233</v>
       </c>
       <c r="K986" t="n">
-        <v>-10.3448275862069</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L986" t="n">
         <v>184.7</v>
@@ -51809,7 +51831,7 @@
         <v>1234</v>
       </c>
       <c r="K987" t="n">
-        <v>-17.24137931034483</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L987" t="n">
         <v>184.1</v>
@@ -51860,7 +51882,7 @@
         <v>1235</v>
       </c>
       <c r="K988" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L988" t="n">
         <v>183.6</v>
@@ -51911,7 +51933,7 @@
         <v>1236</v>
       </c>
       <c r="K989" t="n">
-        <v>-13.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L989" t="n">
         <v>183.6</v>
@@ -51962,7 +51984,7 @@
         <v>1236</v>
       </c>
       <c r="K990" t="n">
-        <v>-10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L990" t="n">
         <v>183.5</v>
@@ -52013,7 +52035,7 @@
         <v>1237</v>
       </c>
       <c r="K991" t="n">
-        <v>-17.24137931034483</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L991" t="n">
         <v>183.3</v>
@@ -52064,7 +52086,7 @@
         <v>1238</v>
       </c>
       <c r="K992" t="n">
-        <v>-21.42857142857143</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L992" t="n">
         <v>183.2</v>
@@ -52115,7 +52137,7 @@
         <v>1239</v>
       </c>
       <c r="K993" t="n">
-        <v>-25.92592592592592</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L993" t="n">
         <v>183.2</v>
@@ -52166,7 +52188,7 @@
         <v>1240</v>
       </c>
       <c r="K994" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L994" t="n">
         <v>182.8</v>
@@ -52217,7 +52239,7 @@
         <v>1241</v>
       </c>
       <c r="K995" t="n">
-        <v>-12</v>
+        <v>25</v>
       </c>
       <c r="L995" t="n">
         <v>182.7</v>
@@ -52268,7 +52290,7 @@
         <v>1243</v>
       </c>
       <c r="K996" t="n">
-        <v>-12</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L996" t="n">
         <v>183.1</v>
@@ -52319,7 +52341,7 @@
         <v>1245</v>
       </c>
       <c r="K997" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="L997" t="n">
         <v>183.8</v>
@@ -52370,7 +52392,7 @@
         <v>1245</v>
       </c>
       <c r="K998" t="n">
-        <v>4</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L998" t="n">
         <v>184.4</v>
@@ -52421,7 +52443,7 @@
         <v>1246</v>
       </c>
       <c r="K999" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
       <c r="L999" t="n">
         <v>184.8</v>
@@ -52472,7 +52494,7 @@
         <v>1247</v>
       </c>
       <c r="K1000" t="n">
-        <v>9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L1000" t="n">
         <v>185.1</v>
@@ -52523,7 +52545,7 @@
         <v>1248</v>
       </c>
       <c r="K1001" t="n">
-        <v>13.04347826086956</v>
+        <v>40</v>
       </c>
       <c r="L1001" t="n">
         <v>185.6</v>
@@ -52574,7 +52596,7 @@
         <v>1249</v>
       </c>
       <c r="K1002" t="n">
-        <v>16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L1002" t="n">
         <v>186.1</v>
@@ -52625,7 +52647,7 @@
         <v>1250</v>
       </c>
       <c r="K1003" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L1003" t="n">
         <v>186.4</v>
@@ -52676,7 +52698,7 @@
         <v>1250</v>
       </c>
       <c r="K1004" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L1004" t="n">
         <v>186.8</v>
@@ -52727,7 +52749,7 @@
         <v>1250</v>
       </c>
       <c r="K1005" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L1005" t="n">
         <v>187.1</v>
@@ -52778,7 +52800,7 @@
         <v>1253</v>
       </c>
       <c r="K1006" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L1006" t="n">
         <v>187.5</v>
@@ -52829,7 +52851,7 @@
         <v>1253</v>
       </c>
       <c r="K1007" t="n">
-        <v>47.36842105263158</v>
+        <v>25</v>
       </c>
       <c r="L1007" t="n">
         <v>187.7</v>
@@ -52880,7 +52902,7 @@
         <v>1255</v>
       </c>
       <c r="K1008" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L1008" t="n">
         <v>188.1</v>
@@ -52931,7 +52953,7 @@
         <v>1258</v>
       </c>
       <c r="K1009" t="n">
-        <v>54.54545454545454</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L1009" t="n">
         <v>188.9</v>
@@ -52982,7 +53004,7 @@
         <v>1262</v>
       </c>
       <c r="K1010" t="n">
-        <v>30.76923076923077</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L1010" t="n">
         <v>189.4</v>
@@ -53033,7 +53055,7 @@
         <v>1263</v>
       </c>
       <c r="K1011" t="n">
-        <v>38.46153846153847</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L1011" t="n">
         <v>189.9</v>
@@ -53084,7 +53106,7 @@
         <v>1263</v>
       </c>
       <c r="K1012" t="n">
-        <v>36</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L1012" t="n">
         <v>190.3</v>
@@ -53135,7 +53157,7 @@
         <v>1266</v>
       </c>
       <c r="K1013" t="n">
-        <v>18.51851851851852</v>
+        <v>12.5</v>
       </c>
       <c r="L1013" t="n">
         <v>190.5</v>
@@ -53186,7 +53208,7 @@
         <v>1267</v>
       </c>
       <c r="K1014" t="n">
-        <v>18.51851851851852</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L1014" t="n">
         <v>190.6</v>
@@ -53237,7 +53259,7 @@
         <v>1267</v>
       </c>
       <c r="K1015" t="n">
-        <v>15.38461538461539</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1015" t="n">
         <v>190.7</v>
@@ -53288,7 +53310,7 @@
         <v>1268</v>
       </c>
       <c r="K1016" t="n">
-        <v>12</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L1016" t="n">
         <v>190.6</v>
@@ -53339,7 +53361,7 @@
         <v>1268</v>
       </c>
       <c r="K1017" t="n">
-        <v>4.347826086956522</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L1017" t="n">
         <v>190.5</v>
@@ -53390,7 +53412,7 @@
         <v>1269</v>
       </c>
       <c r="K1018" t="n">
-        <v>8.333333333333332</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L1018" t="n">
         <v>190.3</v>
@@ -53441,7 +53463,7 @@
         <v>1271</v>
       </c>
       <c r="K1019" t="n">
-        <v>4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1019" t="n">
         <v>189.6</v>
@@ -53492,7 +53514,7 @@
         <v>1273</v>
       </c>
       <c r="K1020" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L1020" t="n">
         <v>189.1</v>
@@ -53543,7 +53565,7 @@
         <v>1273</v>
       </c>
       <c r="K1021" t="n">
-        <v>-4</v>
+        <v>-60</v>
       </c>
       <c r="L1021" t="n">
         <v>188.5</v>
@@ -53594,7 +53616,7 @@
         <v>1274</v>
       </c>
       <c r="K1022" t="n">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="L1022" t="n">
         <v>188</v>
@@ -53645,7 +53667,7 @@
         <v>1274</v>
       </c>
       <c r="K1023" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1023" t="n">
         <v>187.8</v>
@@ -53696,7 +53718,7 @@
         <v>1277</v>
       </c>
       <c r="K1024" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L1024" t="n">
         <v>188</v>
@@ -53747,7 +53769,7 @@
         <v>1278</v>
       </c>
       <c r="K1025" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L1025" t="n">
         <v>188.1</v>
@@ -53798,7 +53820,7 @@
         <v>1279</v>
       </c>
       <c r="K1026" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L1026" t="n">
         <v>188</v>
@@ -53849,7 +53871,7 @@
         <v>1282</v>
       </c>
       <c r="K1027" t="n">
-        <v>3.448275862068965</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L1027" t="n">
         <v>188.2</v>
@@ -53900,7 +53922,7 @@
         <v>1283</v>
       </c>
       <c r="K1028" t="n">
-        <v>-7.142857142857142</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L1028" t="n">
         <v>188.2</v>
@@ -53951,7 +53973,7 @@
         <v>1286</v>
       </c>
       <c r="K1029" t="n">
-        <v>-7.142857142857142</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L1029" t="n">
         <v>188.7</v>
@@ -54002,7 +54024,7 @@
         <v>1289</v>
       </c>
       <c r="K1030" t="n">
-        <v>-3.703703703703703</v>
+        <v>25</v>
       </c>
       <c r="L1030" t="n">
         <v>189.1</v>
@@ -54053,7 +54075,7 @@
         <v>1291</v>
       </c>
       <c r="K1031" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L1031" t="n">
         <v>189.7</v>
@@ -54104,7 +54126,7 @@
         <v>1293</v>
       </c>
       <c r="K1032" t="n">
-        <v>-6.666666666666667</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L1032" t="n">
         <v>190</v>
@@ -54155,7 +54177,7 @@
         <v>1293</v>
       </c>
       <c r="K1033" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L1033" t="n">
         <v>190.3</v>
@@ -54206,7 +54228,7 @@
         <v>1293</v>
       </c>
       <c r="K1034" t="n">
-        <v>7.692307692307693</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L1034" t="n">
         <v>190.3</v>
@@ -54257,7 +54279,7 @@
         <v>1294</v>
       </c>
       <c r="K1035" t="n">
-        <v>3.703703703703703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L1035" t="n">
         <v>190.3</v>
@@ -54308,7 +54330,7 @@
         <v>1294</v>
       </c>
       <c r="K1036" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L1036" t="n">
         <v>190.4</v>
@@ -54359,7 +54381,7 @@
         <v>1294</v>
       </c>
       <c r="K1037" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L1037" t="n">
         <v>190.2</v>
@@ -54410,7 +54432,7 @@
         <v>1294</v>
       </c>
       <c r="K1038" t="n">
-        <v>-4</v>
+        <v>-50</v>
       </c>
       <c r="L1038" t="n">
         <v>190.1</v>
@@ -54461,7 +54483,7 @@
         <v>1296</v>
       </c>
       <c r="K1039" t="n">
-        <v>-4</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L1039" t="n">
         <v>189.5</v>
@@ -54512,7 +54534,7 @@
         <v>1298</v>
       </c>
       <c r="K1040" t="n">
-        <v>12</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L1040" t="n">
         <v>189.4</v>
@@ -54563,7 +54585,7 @@
         <v>1298</v>
       </c>
       <c r="K1041" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="L1041" t="n">
         <v>189.1</v>
@@ -54614,7 +54636,7 @@
         <v>1298</v>
       </c>
       <c r="K1042" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L1042" t="n">
         <v>189</v>
@@ -54665,7 +54687,7 @@
         <v>1300</v>
       </c>
       <c r="K1043" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L1043" t="n">
         <v>188.7</v>
@@ -54716,7 +54738,7 @@
         <v>1300</v>
       </c>
       <c r="K1044" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1044" t="n">
         <v>188.4</v>
@@ -54767,7 +54789,7 @@
         <v>1301</v>
       </c>
       <c r="K1045" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1045" t="n">
         <v>188.3</v>
@@ -54818,7 +54840,7 @@
         <v>1302</v>
       </c>
       <c r="K1046" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L1046" t="n">
         <v>188.3</v>
@@ -54869,7 +54891,7 @@
         <v>1304</v>
       </c>
       <c r="K1047" t="n">
-        <v>-18.18181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L1047" t="n">
         <v>188.1</v>
@@ -54920,7 +54942,7 @@
         <v>1304</v>
       </c>
       <c r="K1048" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1048" t="n">
         <v>187.9</v>
@@ -54971,7 +54993,7 @@
         <v>1305</v>
       </c>
       <c r="K1049" t="n">
-        <v>-26.31578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1049" t="n">
         <v>188</v>
@@ -55022,7 +55044,7 @@
         <v>1306</v>
       </c>
       <c r="K1050" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L1050" t="n">
         <v>187.8</v>
@@ -55073,7 +55095,7 @@
         <v>1307</v>
       </c>
       <c r="K1051" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1051" t="n">
         <v>187.5</v>
@@ -55124,7 +55146,7 @@
         <v>1307</v>
       </c>
       <c r="K1052" t="n">
-        <v>-28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1052" t="n">
         <v>187.2</v>
@@ -55175,7 +55197,7 @@
         <v>1307</v>
       </c>
       <c r="K1053" t="n">
-        <v>-28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L1053" t="n">
         <v>187.1</v>
@@ -55226,7 +55248,7 @@
         <v>1307</v>
       </c>
       <c r="K1054" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1054" t="n">
         <v>187</v>
@@ -55277,7 +55299,7 @@
         <v>1308</v>
       </c>
       <c r="K1055" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1055" t="n">
         <v>186.9</v>
@@ -55328,7 +55350,7 @@
         <v>1308</v>
       </c>
       <c r="K1056" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L1056" t="n">
         <v>186.7</v>
@@ -55379,7 +55401,7 @@
         <v>1310</v>
       </c>
       <c r="K1057" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L1057" t="n">
         <v>186.5</v>
@@ -55430,7 +55452,7 @@
         <v>1313</v>
       </c>
       <c r="K1058" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L1058" t="n">
         <v>186.6</v>
@@ -55481,7 +55503,7 @@
         <v>1313</v>
       </c>
       <c r="K1059" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L1059" t="n">
         <v>186.6</v>
@@ -55532,7 +55554,7 @@
         <v>1315</v>
       </c>
       <c r="K1060" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L1060" t="n">
         <v>186.5</v>
@@ -55583,7 +55605,7 @@
         <v>1315</v>
       </c>
       <c r="K1061" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L1061" t="n">
         <v>186.5</v>
@@ -55634,7 +55656,7 @@
         <v>1315</v>
       </c>
       <c r="K1062" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L1062" t="n">
         <v>186.5</v>
